--- a/System Specifications.xlsx
+++ b/System Specifications.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
   <si>
     <t>System Specification</t>
   </si>
@@ -88,134 +88,308 @@
     <t>CAN</t>
   </si>
   <si>
-    <t>Accessibility</t>
-  </si>
-  <si>
-    <t>Adaptability</t>
-  </si>
-  <si>
-    <t>Appearance</t>
-  </si>
-  <si>
-    <t>Audit and control</t>
-  </si>
-  <si>
-    <t>Backup</t>
-  </si>
-  <si>
-    <t>Certification</t>
-  </si>
-  <si>
-    <t>Compatibility</t>
-  </si>
-  <si>
-    <t>Configurability</t>
-  </si>
-  <si>
-    <t>Correctness</t>
-  </si>
-  <si>
-    <t>Data Integrity</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Disaster recovery</t>
-  </si>
-  <si>
-    <t>Environmental protection</t>
-  </si>
-  <si>
-    <t>Installability</t>
-  </si>
-  <si>
-    <t>Localizability</t>
-  </si>
-  <si>
     <t>Maintainability</t>
   </si>
   <si>
-    <t>Manageability</t>
-  </si>
-  <si>
-    <t>Modifiability</t>
-  </si>
-  <si>
-    <t>Open source</t>
-  </si>
-  <si>
-    <t>Operating constraints</t>
-  </si>
-  <si>
-    <t>Platform constraints</t>
-  </si>
-  <si>
-    <t>Platform compatibility</t>
-  </si>
-  <si>
-    <t>Reporting</t>
-  </si>
-  <si>
-    <t>Reusability</t>
-  </si>
-  <si>
-    <t>Robustness</t>
-  </si>
-  <si>
     <t>Security</t>
   </si>
   <si>
-    <t>Integrity</t>
-  </si>
-  <si>
-    <t>Manufacturability</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Extensibility</t>
-  </si>
-  <si>
     <t>Availability</t>
   </si>
   <si>
     <t>Capacity</t>
   </si>
   <si>
-    <t>performance engineering</t>
-  </si>
-  <si>
-    <t>Price-Privacy</t>
-  </si>
-  <si>
-    <t>Recovery Technique</t>
-  </si>
-  <si>
-    <t>HardWare Resource constraints</t>
-  </si>
-  <si>
-    <t>Safety-ness</t>
-  </si>
-  <si>
     <t>Scalability</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Navigation</t>
   </si>
   <si>
     <t>Business Requirement</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Throughput Requirements</t>
+  </si>
+  <si>
+    <t>Capacity Requirements</t>
+  </si>
+  <si>
+    <t>Group of requirements defines response time charactarsitics  of the system</t>
+  </si>
+  <si>
+    <t>The ability of the system to excecute a given number of transactions per uint time</t>
+  </si>
+  <si>
+    <t>Responce times</t>
+  </si>
+  <si>
+    <t>The allawable distribution of time which system takes to respond to a specific request</t>
+  </si>
+  <si>
+    <t>Group of requirements defines capacity of the system</t>
+  </si>
+  <si>
+    <t>Ability of system to meet or exceed its service level agreements</t>
+  </si>
+  <si>
+    <t>Ability to function the changes in size or volume in order to meet user needs</t>
+  </si>
+  <si>
+    <t>The extend  users able to  access and use system</t>
+  </si>
+  <si>
+    <t>Availability (General)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The minimum proportion of time of given online services/hours should service be available </t>
+  </si>
+  <si>
+    <t>Online service hours</t>
+  </si>
+  <si>
+    <t>Requirement stating when service or all services  must be avilabile to its users</t>
+  </si>
+  <si>
+    <t>Offline Requirements</t>
+  </si>
+  <si>
+    <t>The times available for non-online operations including batch proccessing and system maintainance activities</t>
+  </si>
+  <si>
+    <t>Recilience</t>
+  </si>
+  <si>
+    <t>The relaiability of system charactatistics or its sub components</t>
+  </si>
+  <si>
+    <t>Recoverability</t>
+  </si>
+  <si>
+    <t>The ability to handle and recover from unexcpected failures</t>
+  </si>
+  <si>
+    <t>Disaster Recovery</t>
+  </si>
+  <si>
+    <t>The ability to Recover and continue Service following major incident ie loss of entire data</t>
+  </si>
+  <si>
+    <t>The Required charactrasitics &amp; mechanisms to secure system aginst Unothorized access /malicious attacks etc</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Correct identification of parities attemting to access system and protect aginst unathorized parities</t>
+  </si>
+  <si>
+    <t>Authorisation</t>
+  </si>
+  <si>
+    <t>Mechanism and structure required to authorize users to perform diffrent functions with in system</t>
+  </si>
+  <si>
+    <t>Data confidentiality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extend which data to be protected </t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proccess which will be used to conform system with organizations' security standatds and policies </t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t>Security driven auditing in order to ensure that the security and policies are not broken or breached</t>
+  </si>
+  <si>
+    <t>System management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection of Requirements pertating to live system and corresponding service </t>
+  </si>
+  <si>
+    <t>Alert management</t>
+  </si>
+  <si>
+    <t>Requirements on application to rise alerts in responce to error or eception condition</t>
+  </si>
+  <si>
+    <t>Service level reporting</t>
+  </si>
+  <si>
+    <t>Requirement for the capture of data on system  performance  aginst agreed service level</t>
+  </si>
+  <si>
+    <t>System monitoring &amp; measurement</t>
+  </si>
+  <si>
+    <t>The expected Monitoring and Measurement approches to be taken for life service infrastructure</t>
+  </si>
+  <si>
+    <t>Maintainance and Administration</t>
+  </si>
+  <si>
+    <t>The Adding and removing  users , monitoring the application , software distripution and installation</t>
+  </si>
+  <si>
+    <t>Usability and Accessability</t>
+  </si>
+  <si>
+    <t>The Qualicative properites of the final system relating to user productivity and ease of use</t>
+  </si>
+  <si>
+    <t>The qualities of the system which affect user productivity with in use of system</t>
+  </si>
+  <si>
+    <t>Accessability</t>
+  </si>
+  <si>
+    <t>Ways in which the system will be accessable to users with a particular or non standard requirement</t>
+  </si>
+  <si>
+    <t>Group of requirements the properties of development with future fix,enhancement,modification</t>
+  </si>
+  <si>
+    <t>Flexability</t>
+  </si>
+  <si>
+    <t>The degree to which the system coded is intended to support change</t>
+  </si>
+  <si>
+    <t>Portability</t>
+  </si>
+  <si>
+    <t>The extend to which the system supports platform &amp; product independence  so it could be ported to  alt platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relase support </t>
+  </si>
+  <si>
+    <t>The ways in which the system will be supported in initial and future release</t>
+  </si>
+  <si>
+    <t>Managability</t>
+  </si>
+  <si>
+    <t>The ease in which system will be Developed,Tested,Implemented,Deployed and Maintained</t>
+  </si>
+  <si>
+    <t>Data integrity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correctness &amp; completeness of data must be maintained  in the system </t>
+  </si>
+  <si>
+    <t>Data backup &amp; restore</t>
+  </si>
+  <si>
+    <t>Creating secure backups of the operational data stores and the restoration of backup should become unnessary</t>
+  </si>
+  <si>
+    <t>Data Retention</t>
+  </si>
+  <si>
+    <t>The periods for which data must be stored or archived in one form or another</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>Requirement to extract a set of data to be loaded to other systems and the required reporting based on it</t>
+  </si>
+  <si>
+    <t>Offline data extract and report</t>
+  </si>
+  <si>
+    <t>Any regulatory standards which must be adhered to in processing and representation of data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reusability </t>
+  </si>
+  <si>
+    <t>the Morelikely to add new features funcionalities with slight or no modifications</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The limitation on  business and technical </t>
+  </si>
+  <si>
+    <t>Business Constraints</t>
+  </si>
+  <si>
+    <t>The constraints in which we apply on application in which it can be affordable to every one</t>
+  </si>
+  <si>
+    <t>Internationalisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The required languages for application must be supported and (political , culture , region) and defines currency ,date etc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legislative and regulatory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discripe legal requirement constraints that arise from outside user organization ie government </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geographic organization </t>
+  </si>
+  <si>
+    <t>Location of the part  of the business affected by this system including number of users in each location</t>
+  </si>
+  <si>
+    <t>Associated Risk</t>
+  </si>
+  <si>
+    <t>the risk associated with the project which might impact project completion or governance decissions ie weather/elections</t>
+  </si>
+  <si>
+    <t>Technical Constraints</t>
+  </si>
+  <si>
+    <t>The constraints in which we apply on application in which how its implemented or done</t>
+  </si>
+  <si>
+    <t>Implementaion Constraints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraints that affect how system can be implemented </t>
+  </si>
+  <si>
+    <t>Pinciples,policies &amp; standards</t>
+  </si>
+  <si>
+    <t>Discripe the requirements which arise from  the principle ,policies&amp;standards in local or wider organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legacy integration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration support for applications based on older versions of the application </t>
+  </si>
+  <si>
+    <t>Interoperability</t>
+  </si>
+  <si>
+    <t>the ability of two or more components of system to function in the same system or enviroment without mutual interferance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +437,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -472,117 +662,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -590,20 +689,139 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="RowLevel_1" xfId="1" builtinId="1" iLevel="0"/>
+    <cellStyle name="RowLevel_2" xfId="2" builtinId="1" iLevel="1"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -622,13 +840,20 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -645,6 +870,44 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -739,75 +1002,21 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="B&amp;W Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="B&amp;W Style" pivot="0" count="6">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="8"/>
     </tableStyle>
     <tableStyle name="B&amp;W Style 2" pivot="0" count="4">
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -819,11 +1028,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="M17:M19" totalsRowShown="0" headerRowDxfId="0" dataCellStyle="Hyperlink">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="M17:M19" totalsRowShown="0" headerRowDxfId="3" dataCellStyle="Hyperlink">
   <autoFilter ref="M17:M19"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Navigation" dataCellStyle="Hyperlink">
-      <calculatedColumnFormula>'Non Functional Requirement'!D1</calculatedColumnFormula>
+      <calculatedColumnFormula>'Non Functional Requirement'!B1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="B&amp;W Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -831,19 +1040,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tbl_NonFunc" displayName="tbl_NonFunc" ref="C7:H46" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="RowLevel_1">
-  <autoFilter ref="C7:H46"/>
-  <sortState ref="C8:H83">
-    <sortCondition ref="D7:D83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tbl_NonFunc" displayName="tbl_NonFunc" ref="A7:F56" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A7:F56"/>
+  <sortState ref="A8:F83">
+    <sortCondition ref="B7:B83"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="N" dataDxfId="2">
-      <calculatedColumnFormula>$C7+1</calculatedColumnFormula>
+    <tableColumn id="1" name="N" dataDxfId="1">
+      <calculatedColumnFormula>$A7+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="NonFunctional Req"/>
     <tableColumn id="3" name="Discripton"/>
     <tableColumn id="4" name="Remarks"/>
-    <tableColumn id="7" name="T/F" dataDxfId="1"/>
+    <tableColumn id="7" name="T/F" dataDxfId="0"/>
     <tableColumn id="8" name="Level Req"/>
   </tableColumns>
   <tableStyleInfo name="B&amp;W Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1140,256 +1349,256 @@
   <dimension ref="A3:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="28"/>
-    <col min="6" max="7" width="11" style="28" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" style="28"/>
-    <col min="13" max="13" width="27.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="5" width="9.140625" style="3"/>
+    <col min="6" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="27.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
     </row>
     <row r="5" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
     </row>
     <row r="6" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36"/>
     </row>
     <row r="7" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="9" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="36"/>
     </row>
     <row r="11" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
     </row>
     <row r="16" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="M17" s="28" t="s">
-        <v>61</v>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="M17" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="M18" s="44" t="str">
-        <f>'Non Functional Requirement'!D1</f>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="M18" s="12" t="str">
+        <f>'Non Functional Requirement'!B1</f>
         <v>Non Functional Requirement</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="20">
+      <c r="B19" s="1"/>
+      <c r="C19" s="45">
         <v>25569</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="M19" s="44" t="s">
-        <v>62</v>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
+      <c r="M19" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="M20" s="44"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="29"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="29"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="30"/>
-      <c r="E48" s="29"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="30"/>
-      <c r="E49" s="29"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="30"/>
-      <c r="E50" s="29"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="30"/>
-      <c r="E51" s="29"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="30"/>
-      <c r="E52" s="29"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D53" s="30"/>
-      <c r="E53" s="29"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D54" s="30"/>
-      <c r="E54" s="29"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D55" s="30"/>
-      <c r="E55" s="29"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D56" s="30"/>
-      <c r="E56" s="29"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D57" s="30"/>
-      <c r="E57" s="29"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D58" s="30"/>
-      <c r="E58" s="29"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="30"/>
-      <c r="E59" s="29"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="30"/>
-      <c r="E60" s="29"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D61" s="30"/>
-      <c r="E61" s="29"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D62" s="30"/>
-      <c r="E62" s="29"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D63" s="30"/>
-      <c r="E63" s="29"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D64" s="31"/>
-      <c r="E64" s="32"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1454,551 +1663,798 @@
   <sheetPr>
     <outlinePr applyStyles="1" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="C1" s="49"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f t="shared" ref="A9:A56" si="0">$A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="J10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="J11" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="43"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="39">
-        <f>$C8+1</f>
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="39">
-        <f>$C9+1</f>
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="J10" s="40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="39">
-        <f>$C10+1</f>
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="J11" s="40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="39">
-        <f>$C11+1</f>
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="39">
-        <f>$C12+1</f>
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="39">
-        <f>$C13+1</f>
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="39">
-        <f>$C14+1</f>
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="39">
-        <f>$C15+1</f>
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="39">
-        <f>$C16+1</f>
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B35" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G17" s="39"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="39">
-        <f>$C17+1</f>
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G18" s="39"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="39">
-        <f>$C18+1</f>
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G19" s="39"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="39">
-        <f>$C19+1</f>
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G20" s="39"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="39">
-        <f>$C20+1</f>
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B39" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G21" s="39"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="39">
-        <f>$C21+1</f>
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G22" s="39"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="39">
-        <f>$C22+1</f>
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="39"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="39">
-        <f>$C23+1</f>
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G24" s="39"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="39">
-        <f>$C24+1</f>
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="39">
-        <f>$C25+1</f>
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="39">
-        <f>$C26+1</f>
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="G27" s="39"/>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="39">
-        <f>$C27+1</f>
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="G28" s="39"/>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="39">
-        <f>$C28+1</f>
-        <v>22</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B46" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:6" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G29" s="39"/>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="39">
-        <f>$C29+1</f>
-        <v>23</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B47" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="G30" s="39"/>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="39">
-        <f>$C30+1</f>
-        <v>24</v>
-      </c>
-      <c r="D31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="39">
-        <f>$C31+1</f>
-        <v>25</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G32" s="39"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="39">
-        <f>$C32+1</f>
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="G33" s="39"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="39">
-        <f>$C33+1</f>
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="39"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="39">
-        <f>$C34+1</f>
-        <v>28</v>
-      </c>
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="39"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="39">
-        <f>$C35+1</f>
-        <v>29</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="G36" s="39"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="39">
-        <f>$C36+1</f>
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="39"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="39">
-        <f>$C37+1</f>
-        <v>31</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G38" s="39"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="39">
-        <f>$C38+1</f>
-        <v>32</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B52" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G39" s="39"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="39">
-        <f>$C39+1</f>
-        <v>33</v>
-      </c>
-      <c r="D40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="39"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="39">
-        <f>$C40+1</f>
-        <v>34</v>
-      </c>
-      <c r="D41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" s="39"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="39">
-        <f>$C41+1</f>
-        <v>35</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="G42" s="39"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="39">
-        <f>$C42+1</f>
-        <v>36</v>
-      </c>
-      <c r="D43" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="39"/>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="39">
-        <f>$C43+1</f>
-        <v>37</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="G44" s="39"/>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="39">
-        <f>$C44+1</f>
-        <v>38</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="G45" s="39"/>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="39">
-        <f>$C45+1</f>
-        <v>39</v>
-      </c>
-      <c r="D46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="39"/>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:E5"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F56">
       <formula1>Level_Req</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E56">
       <formula1>T_F</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1:C3" location="'System Specification'!A1" display="Index"/>
+    <hyperlink ref="A1" location="'System Specification'!A1" display="Index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/System Specifications.xlsx
+++ b/System Specifications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="System Specification" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="150">
   <si>
     <t>System Specification</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Mohamed Medhat Ali</t>
   </si>
   <si>
-    <t>Product X</t>
-  </si>
-  <si>
     <t>Non Functional Requirement</t>
   </si>
   <si>
@@ -61,12 +58,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>NonFunctional Req</t>
-  </si>
-  <si>
-    <t>Discripton</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -383,6 +374,102 @@
   </si>
   <si>
     <t>the ability of two or more components of system to function in the same system or enviroment without mutual interferance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product X  </t>
+  </si>
+  <si>
+    <t>NonFunctional Req/Question</t>
+  </si>
+  <si>
+    <t>Discripton/Answer</t>
+  </si>
+  <si>
+    <t>what's complexty of Transaction?</t>
+  </si>
+  <si>
+    <t>what's the main critical functions?</t>
+  </si>
+  <si>
+    <t>what's MAX time/simple Transaction?</t>
+  </si>
+  <si>
+    <t>what's MAX time/meduim Transaction?</t>
+  </si>
+  <si>
+    <t>whats' MAX time/complex Transaction?</t>
+  </si>
+  <si>
+    <t>what's MAX initial loading time?</t>
+  </si>
+  <si>
+    <t>what's MAX # of Transactions?</t>
+  </si>
+  <si>
+    <t>what's MIN # of Transactions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what's MAX time/Transaction ? </t>
+  </si>
+  <si>
+    <t>what's MIN time/Transaction ?</t>
+  </si>
+  <si>
+    <t>what's MAX capacity of system?</t>
+  </si>
+  <si>
+    <t>what's MAX capacity/Record?</t>
+  </si>
+  <si>
+    <t>what's MAX # of USERS?</t>
+  </si>
+  <si>
+    <t>what's MIN RAM Space ?</t>
+  </si>
+  <si>
+    <t>what's Recomended RAM space?</t>
+  </si>
+  <si>
+    <t>what happen when limit reached?</t>
+  </si>
+  <si>
+    <t>does USERS able to add DataFiles?</t>
+  </si>
+  <si>
+    <t>what's MAX Data file/USER able to add ?</t>
+  </si>
+  <si>
+    <t>should data be compressed ?</t>
+  </si>
+  <si>
+    <t>what's the avarage compression ratio?</t>
+  </si>
+  <si>
+    <t>how many do you use service per week ?</t>
+  </si>
+  <si>
+    <t>how long do you want our service in days ?</t>
+  </si>
+  <si>
+    <t>Specify days you want our service to be available.</t>
+  </si>
+  <si>
+    <t>will the service be available on holidays ?</t>
+  </si>
+  <si>
+    <t>what time zones able to impact the service ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what's Period More likley </t>
+  </si>
+  <si>
+    <t>what's acceptable time to recover from disaster?</t>
+  </si>
+  <si>
+    <t>what's acceptable time to recover from incident?</t>
+  </si>
+  <si>
+    <t>what's Recovery technique should be used ?</t>
   </si>
 </sst>
 </file>
@@ -454,12 +541,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="18">
@@ -662,14 +767,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -678,7 +784,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -692,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -701,16 +807,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,24 +920,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+  <cellStyles count="6">
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
     <cellStyle name="RowLevel_1" xfId="1" builtinId="1" iLevel="0"/>
     <cellStyle name="RowLevel_2" xfId="2" builtinId="1" iLevel="1"/>
+    <cellStyle name="RowLevel_3" xfId="3" builtinId="1" iLevel="2"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -1005,30 +1119,33 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="B&amp;W Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="B&amp;W Style" pivot="0" count="6">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="5"/>
     </tableStyle>
     <tableStyle name="B&amp;W Style 2" pivot="0" count="4">
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="totalRow" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="totalRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="M17:M19" totalsRowShown="0" headerRowDxfId="3" dataCellStyle="Hyperlink">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="M17:M19" totalsRowShown="0" headerRowDxfId="0" dataCellStyle="Hyperlink">
   <autoFilter ref="M17:M19"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Navigation" dataCellStyle="Hyperlink">
@@ -1040,20 +1157,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tbl_NonFunc" displayName="tbl_NonFunc" ref="A7:F56" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A7:F56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tbl_NonFunc" displayName="tbl_NonFunc" ref="A7:F246" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A7:F246"/>
   <sortState ref="A8:F83">
     <sortCondition ref="B7:B83"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="N" dataDxfId="1">
+    <tableColumn id="1" name="N" dataCellStyle="Normal">
       <calculatedColumnFormula>$A7+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="NonFunctional Req"/>
-    <tableColumn id="3" name="Discripton"/>
-    <tableColumn id="4" name="Remarks"/>
-    <tableColumn id="7" name="T/F" dataDxfId="0"/>
-    <tableColumn id="8" name="Level Req"/>
+    <tableColumn id="2" name="NonFunctional Req/Question" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Discripton/Answer" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Remarks" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="T/F" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Level Req" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="B&amp;W Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1348,11 +1465,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="9.140625" style="3"/>
     <col min="6" max="7" width="11" style="3" customWidth="1"/>
@@ -1363,103 +1480,103 @@
   <sheetData>
     <row r="3" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
     </row>
     <row r="6" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="44"/>
     </row>
     <row r="9" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="36"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="44"/>
     </row>
     <row r="10" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="36"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="44"/>
     </row>
     <row r="11" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="47"/>
     </row>
     <row r="16" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
       <c r="M17" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1467,14 +1584,14 @@
         <v>2</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
       <c r="M18" s="12" t="str">
         <f>'Non Functional Requirement'!B1</f>
         <v>Non Functional Requirement</v>
@@ -1485,16 +1602,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="45">
+      <c r="C19" s="53">
         <v>25569</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
       <c r="M19" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1502,29 +1619,29 @@
         <v>4</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E46" s="4"/>
@@ -1663,15 +1780,15 @@
   <sheetPr>
     <outlinePr applyStyles="1" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="113.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -1682,12 +1799,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="B1" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="57"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="J1" s="10"/>
@@ -1696,8 +1813,8 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="J2" s="10"/>
@@ -1706,8 +1823,8 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="J3" s="10"/>
@@ -1716,8 +1833,8 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="J4" s="10"/>
@@ -1725,8 +1842,8 @@
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="J5" s="10"/>
@@ -1746,707 +1863,2421 @@
     </row>
     <row r="7" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="E8" s="13" t="b">
         <v>1</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K8" s="15" t="b">
         <v>1</v>
       </c>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <f t="shared" ref="A9:A56" si="0">$A8+1</f>
+    <row r="9" spans="1:12" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <f t="shared" ref="A9:A223" si="0">$A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="b">
+      <c r="E9" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="9" t="b">
+      <c r="F9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="8"/>
+      <c r="B10" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
       <c r="J10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="J11" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <f t="shared" si="0"/>
+      <c r="B11" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="J11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <f t="shared" ref="A12:A21" si="1">$A11+1</f>
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:12" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <f t="shared" si="0"/>
+      <c r="C15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <f t="shared" si="0"/>
+      <c r="B16" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <f t="shared" si="0"/>
+      <c r="B17" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <f t="shared" si="0"/>
+      <c r="B18" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <f t="shared" si="0"/>
+      <c r="B19" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <f t="shared" si="0"/>
+      <c r="B20" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" s="13" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>23</v>
+      <c r="B21" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+    <row r="22" spans="1:6" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <f t="shared" si="0"/>
+      <c r="B22" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <f t="shared" ref="A23:A34" si="2">$A22+1</f>
         <v>16</v>
       </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <f t="shared" si="0"/>
+      <c r="B23" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <f t="shared" si="0"/>
+      <c r="B24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <f t="shared" si="0"/>
+      <c r="B25" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
-        <f t="shared" si="0"/>
+      <c r="B26" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <f t="shared" si="0"/>
+      <c r="B27" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="1:6" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <f t="shared" si="0"/>
+      <c r="B28" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <f t="shared" si="0"/>
+      <c r="B29" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <f t="shared" si="0"/>
+      <c r="B30" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
-        <f t="shared" si="0"/>
+      <c r="B31" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <f t="shared" si="0"/>
+      <c r="B32" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <f t="shared" si="0"/>
+      <c r="B33" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" s="13" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="B34" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <f>$A35+1</f>
+        <v>29</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
+        <f t="shared" ref="A37:A47" si="3">$A36+1</f>
+        <v>30</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" spans="1:6" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <f>$A41+1</f>
+        <v>35</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+    </row>
+    <row r="45" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+    </row>
+    <row r="46" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" spans="1:6" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="26">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
+        <f>$A47+1</f>
+        <v>41</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A49" s="23">
+        <f t="shared" ref="A49:A112" si="4">$A48+1</f>
+        <v>42</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A50" s="23">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="26">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="28"/>
+    </row>
+    <row r="54" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A58" s="23">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="28"/>
+    </row>
+    <row r="60" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+    </row>
+    <row r="61" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+    </row>
+    <row r="62" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A62" s="23">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+    </row>
+    <row r="64" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A64" s="23">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+    </row>
+    <row r="65" spans="1:6" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="28"/>
+    </row>
+    <row r="66" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A66" s="23">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+    </row>
+    <row r="67" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+    </row>
+    <row r="68" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A68" s="23">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B69" s="24"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+    </row>
+    <row r="70" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A70" s="23">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+    </row>
+    <row r="71" spans="1:6" s="13" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="25">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:6" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="28"/>
+    </row>
+    <row r="73" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="B73" s="24"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A74" s="23">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="B75" s="24"/>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A76" s="23">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A77" s="23">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="B77" s="24"/>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:6" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="26">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="28"/>
+    </row>
+    <row r="79" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A79" s="23">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="B79" s="24"/>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A80" s="23">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A81" s="23">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="B81" s="24"/>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A82" s="23">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="B83" s="24"/>
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" s="28"/>
+    </row>
+    <row r="85" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A85" s="23">
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="B85" s="24"/>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A86" s="23">
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B86" s="24"/>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A87" s="23">
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B87" s="24"/>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A88" s="23">
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B88" s="24"/>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A89" s="23">
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B89" s="24"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26">
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B90" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E90" s="28"/>
+    </row>
+    <row r="91" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A91" s="23">
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="B91" s="24"/>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A92" s="23">
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="B92" s="24"/>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A93" s="23">
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B93" s="24"/>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A94" s="23">
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B94" s="24"/>
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A95" s="23">
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="B95" s="24"/>
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="26">
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B96" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E96" s="28"/>
+    </row>
+    <row r="97" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A97" s="23">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B97" s="24"/>
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A98" s="23">
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B98" s="24"/>
+      <c r="E98" s="8"/>
+    </row>
+    <row r="99" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A99" s="23">
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="B99" s="24"/>
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A100" s="23">
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B100" s="24"/>
+      <c r="E100" s="8"/>
+    </row>
+    <row r="101" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A101" s="23">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B101" s="24"/>
+      <c r="E101" s="8"/>
+    </row>
+    <row r="102" spans="1:5" s="13" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="25">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E102" s="16"/>
+    </row>
+    <row r="103" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="26">
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="B103" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103" s="28"/>
+    </row>
+    <row r="104" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A104" s="23">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="B104" s="24"/>
+      <c r="E104" s="8"/>
+    </row>
+    <row r="105" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A105" s="23">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="B105" s="24"/>
+      <c r="E105" s="8"/>
+    </row>
+    <row r="106" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A106" s="23">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B106" s="24"/>
+      <c r="E106" s="8"/>
+    </row>
+    <row r="107" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A107" s="23">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B107" s="24"/>
+      <c r="E107" s="8"/>
+    </row>
+    <row r="108" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A108" s="23">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="B108" s="24"/>
+      <c r="E108" s="8"/>
+    </row>
+    <row r="109" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="26">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E109" s="28"/>
+    </row>
+    <row r="110" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A110" s="23">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="B110" s="24"/>
+      <c r="E110" s="8"/>
+    </row>
+    <row r="111" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A111" s="23">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="B111" s="24"/>
+      <c r="E111" s="8"/>
+    </row>
+    <row r="112" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A112" s="23">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="B112" s="24"/>
+      <c r="E112" s="8"/>
+    </row>
+    <row r="113" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A113" s="23">
+        <f t="shared" ref="A113:A176" si="5">$A112+1</f>
+        <v>106</v>
+      </c>
+      <c r="B113" s="24"/>
+      <c r="E113" s="8"/>
+    </row>
+    <row r="114" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A114" s="23">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="B114" s="24"/>
+      <c r="E114" s="8"/>
+    </row>
+    <row r="115" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="26">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="B115" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E115" s="28"/>
+    </row>
+    <row r="116" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A116" s="23">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="B116" s="24"/>
+      <c r="E116" s="8"/>
+    </row>
+    <row r="117" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A117" s="23">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="B117" s="24"/>
+      <c r="E117" s="8"/>
+    </row>
+    <row r="118" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A118" s="23">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="B118" s="24"/>
+      <c r="E118" s="8"/>
+    </row>
+    <row r="119" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A119" s="23">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="B119" s="24"/>
+      <c r="E119" s="8"/>
+    </row>
+    <row r="120" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A120" s="23">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="B120" s="24"/>
+      <c r="E120" s="8"/>
+    </row>
+    <row r="121" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="26">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="28"/>
+    </row>
+    <row r="122" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A122" s="23">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="B122" s="24"/>
+      <c r="E122" s="8"/>
+    </row>
+    <row r="123" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A123" s="23">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="B123" s="24"/>
+      <c r="E123" s="8"/>
+    </row>
+    <row r="124" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A124" s="23">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+      <c r="B124" s="24"/>
+      <c r="E124" s="8"/>
+    </row>
+    <row r="125" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A125" s="23">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="B125" s="24"/>
+      <c r="E125" s="8"/>
+    </row>
+    <row r="126" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A126" s="23">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="B126" s="24"/>
+      <c r="E126" s="8"/>
+    </row>
+    <row r="127" spans="1:5" s="13" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="25">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E127" s="16"/>
+    </row>
+    <row r="128" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="26">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E128" s="28"/>
+    </row>
+    <row r="129" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A129" s="23">
+        <f t="shared" si="5"/>
+        <v>122</v>
+      </c>
+      <c r="B129" s="24"/>
+      <c r="E129" s="8"/>
+    </row>
+    <row r="130" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A130" s="23">
+        <f t="shared" si="5"/>
+        <v>123</v>
+      </c>
+      <c r="B130" s="24"/>
+      <c r="E130" s="8"/>
+    </row>
+    <row r="131" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A131" s="23">
+        <f t="shared" si="5"/>
+        <v>124</v>
+      </c>
+      <c r="B131" s="24"/>
+      <c r="E131" s="8"/>
+    </row>
+    <row r="132" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A132" s="23">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="B132" s="24"/>
+      <c r="E132" s="8"/>
+    </row>
+    <row r="133" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A133" s="23">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="B133" s="24"/>
+      <c r="E133" s="8"/>
+    </row>
+    <row r="134" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="26">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E134" s="28"/>
+    </row>
+    <row r="135" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A135" s="23">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="B135" s="24"/>
+      <c r="E135" s="8"/>
+    </row>
+    <row r="136" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A136" s="23">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+      <c r="B136" s="24"/>
+      <c r="E136" s="8"/>
+    </row>
+    <row r="137" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A137" s="23">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="B137" s="24"/>
+      <c r="E137" s="8"/>
+    </row>
+    <row r="138" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A138" s="23">
+        <f t="shared" si="5"/>
+        <v>131</v>
+      </c>
+      <c r="B138" s="24"/>
+      <c r="E138" s="8"/>
+    </row>
+    <row r="139" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A139" s="23">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="B139" s="24"/>
+      <c r="E139" s="8"/>
+    </row>
+    <row r="140" spans="1:5" s="13" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="25">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E140" s="16"/>
+    </row>
+    <row r="141" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="26">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E141" s="28"/>
+    </row>
+    <row r="142" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A142" s="23">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="B142" s="24"/>
+      <c r="E142" s="8"/>
+    </row>
+    <row r="143" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A143" s="23">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="B143" s="24"/>
+      <c r="E143" s="8"/>
+    </row>
+    <row r="144" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A144" s="23">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+      <c r="B144" s="24"/>
+      <c r="E144" s="8"/>
+    </row>
+    <row r="145" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A145" s="23">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="B145" s="24"/>
+      <c r="E145" s="8"/>
+    </row>
+    <row r="146" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A146" s="23">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+      <c r="B146" s="24"/>
+      <c r="E146" s="8"/>
+    </row>
+    <row r="147" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="26">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="B147" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E147" s="28"/>
+    </row>
+    <row r="148" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A148" s="23">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="B148" s="24"/>
+      <c r="E148" s="8"/>
+    </row>
+    <row r="149" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A149" s="23">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="B149" s="24"/>
+      <c r="E149" s="8"/>
+    </row>
+    <row r="150" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A150" s="23">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="B150" s="24"/>
+      <c r="E150" s="8"/>
+    </row>
+    <row r="151" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A151" s="23">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="B151" s="24"/>
+      <c r="E151" s="8"/>
+    </row>
+    <row r="152" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A152" s="23">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="B152" s="24"/>
+      <c r="E152" s="8"/>
+    </row>
+    <row r="153" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="26">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E153" s="28"/>
+    </row>
+    <row r="154" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A154" s="23">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+      <c r="B154" s="24"/>
+      <c r="E154" s="8"/>
+    </row>
+    <row r="155" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A155" s="23">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="B155" s="24"/>
+      <c r="E155" s="8"/>
+    </row>
+    <row r="156" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A156" s="23">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
+      <c r="B156" s="24"/>
+      <c r="E156" s="8"/>
+    </row>
+    <row r="157" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A157" s="23">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="B157" s="24"/>
+      <c r="E157" s="8"/>
+    </row>
+    <row r="158" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A158" s="23">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+      <c r="B158" s="24"/>
+      <c r="E158" s="8"/>
+    </row>
+    <row r="159" spans="1:5" s="13" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="25">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E159" s="16"/>
+    </row>
+    <row r="160" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="26">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="B160" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E160" s="28"/>
+    </row>
+    <row r="161" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A161" s="23">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+      <c r="B161" s="24"/>
+      <c r="E161" s="8"/>
+    </row>
+    <row r="162" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A162" s="23">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+      <c r="B162" s="24"/>
+      <c r="E162" s="8"/>
+    </row>
+    <row r="163" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A163" s="23">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="B163" s="24"/>
+      <c r="E163" s="8"/>
+    </row>
+    <row r="164" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A164" s="23">
+        <f t="shared" si="5"/>
+        <v>157</v>
+      </c>
+      <c r="B164" s="24"/>
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A165" s="23">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="B165" s="24"/>
+      <c r="E165" s="8"/>
+    </row>
+    <row r="166" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="26">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E166" s="28"/>
+    </row>
+    <row r="167" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A167" s="23">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="B167" s="24"/>
+      <c r="E167" s="8"/>
+    </row>
+    <row r="168" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A168" s="23">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="B168" s="24"/>
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A169" s="23">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="B169" s="24"/>
+      <c r="E169" s="8"/>
+    </row>
+    <row r="170" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A170" s="23">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="B170" s="24"/>
+      <c r="E170" s="8"/>
+    </row>
+    <row r="171" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A171" s="23">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+      <c r="B171" s="24"/>
+      <c r="E171" s="8"/>
+    </row>
+    <row r="172" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="26">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="B172" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E172" s="28"/>
+    </row>
+    <row r="173" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A173" s="23">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="B173" s="24"/>
+      <c r="E173" s="8"/>
+    </row>
+    <row r="174" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A174" s="23">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="B174" s="24"/>
+      <c r="E174" s="8"/>
+    </row>
+    <row r="175" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A175" s="23">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="B175" s="24"/>
+      <c r="E175" s="8"/>
+    </row>
+    <row r="176" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A176" s="23">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="B176" s="24"/>
+      <c r="E176" s="8"/>
+    </row>
+    <row r="177" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A177" s="23">
+        <f t="shared" ref="A177:A240" si="6">$A176+1</f>
+        <v>170</v>
+      </c>
+      <c r="B177" s="24"/>
+      <c r="E177" s="8"/>
+    </row>
+    <row r="178" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="26">
+        <f t="shared" si="6"/>
+        <v>171</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E178" s="28"/>
+    </row>
+    <row r="179" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A179" s="23">
+        <f t="shared" si="6"/>
+        <v>172</v>
+      </c>
+      <c r="B179" s="24"/>
+      <c r="E179" s="8"/>
+    </row>
+    <row r="180" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A180" s="23">
+        <f t="shared" si="6"/>
+        <v>173</v>
+      </c>
+      <c r="B180" s="24"/>
+      <c r="E180" s="8"/>
+    </row>
+    <row r="181" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A181" s="23">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="B181" s="24"/>
+      <c r="E181" s="8"/>
+    </row>
+    <row r="182" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A182" s="23">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+      <c r="B182" s="24"/>
+      <c r="E182" s="8"/>
+    </row>
+    <row r="183" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A183" s="23">
+        <f t="shared" si="6"/>
+        <v>176</v>
+      </c>
+      <c r="B183" s="24"/>
+      <c r="E183" s="8"/>
+    </row>
+    <row r="184" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="26">
+        <f t="shared" si="6"/>
+        <v>177</v>
+      </c>
+      <c r="B184" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E184" s="28"/>
+    </row>
+    <row r="185" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A185" s="23">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="B185" s="24"/>
+      <c r="E185" s="8"/>
+    </row>
+    <row r="186" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A186" s="23">
+        <f t="shared" si="6"/>
+        <v>179</v>
+      </c>
+      <c r="B186" s="24"/>
+      <c r="E186" s="8"/>
+    </row>
+    <row r="187" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A187" s="23">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="B187" s="24"/>
+      <c r="E187" s="8"/>
+    </row>
+    <row r="188" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A188" s="23">
+        <f t="shared" si="6"/>
+        <v>181</v>
+      </c>
+      <c r="B188" s="24"/>
+      <c r="E188" s="8"/>
+    </row>
+    <row r="189" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A189" s="23">
+        <f t="shared" si="6"/>
+        <v>182</v>
+      </c>
+      <c r="B189" s="24"/>
+      <c r="E189" s="8"/>
+    </row>
+    <row r="190" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="26">
+        <f t="shared" si="6"/>
+        <v>183</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C190" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="E190" s="28"/>
+    </row>
+    <row r="191" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A191" s="23">
+        <f t="shared" si="6"/>
+        <v>184</v>
+      </c>
+      <c r="B191" s="62"/>
+      <c r="C191" s="22"/>
+      <c r="E191" s="8"/>
+    </row>
+    <row r="192" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A192" s="23">
+        <f t="shared" si="6"/>
+        <v>185</v>
+      </c>
+      <c r="B192" s="62"/>
+      <c r="C192" s="22"/>
+      <c r="E192" s="8"/>
+    </row>
+    <row r="193" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A193" s="23">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="B193" s="62"/>
+      <c r="C193" s="22"/>
+      <c r="E193" s="8"/>
+    </row>
+    <row r="194" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A194" s="23">
+        <f t="shared" si="6"/>
+        <v>187</v>
+      </c>
+      <c r="B194" s="62"/>
+      <c r="C194" s="22"/>
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A195" s="23">
+        <f t="shared" si="6"/>
+        <v>188</v>
+      </c>
+      <c r="B195" s="62"/>
+      <c r="C195" s="22"/>
+      <c r="E195" s="8"/>
+    </row>
+    <row r="196" spans="1:5" s="13" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="25">
+        <f t="shared" si="6"/>
+        <v>189</v>
+      </c>
+      <c r="B196" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C196" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E196" s="16"/>
+    </row>
+    <row r="197" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="26">
+        <f t="shared" si="6"/>
+        <v>190</v>
+      </c>
+      <c r="B197" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B46" s="13" t="s">
+      <c r="C197" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="E197" s="28"/>
+    </row>
+    <row r="198" spans="1:5" s="65" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="63">
+        <f t="shared" si="6"/>
+        <v>191</v>
+      </c>
+      <c r="B198" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B47" s="22" t="s">
+      <c r="C198" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="E198" s="66"/>
+    </row>
+    <row r="199" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A199" s="23">
+        <f t="shared" si="6"/>
+        <v>192</v>
+      </c>
+      <c r="B199" s="24"/>
+      <c r="E199" s="8"/>
+    </row>
+    <row r="200" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A200" s="23">
+        <f t="shared" si="6"/>
+        <v>193</v>
+      </c>
+      <c r="B200" s="24"/>
+      <c r="E200" s="8"/>
+    </row>
+    <row r="201" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A201" s="23">
+        <f t="shared" si="6"/>
+        <v>194</v>
+      </c>
+      <c r="B201" s="24"/>
+      <c r="E201" s="8"/>
+    </row>
+    <row r="202" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A202" s="23">
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+      <c r="B202" s="24"/>
+      <c r="E202" s="8"/>
+    </row>
+    <row r="203" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A203" s="23">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+      <c r="B203" s="24"/>
+      <c r="E203" s="8"/>
+    </row>
+    <row r="204" spans="1:5" s="65" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="63">
+        <f t="shared" si="6"/>
+        <v>197</v>
+      </c>
+      <c r="B204" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C204" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E204" s="66"/>
+    </row>
+    <row r="205" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A205" s="23">
+        <f t="shared" si="6"/>
+        <v>198</v>
+      </c>
+      <c r="B205" s="24"/>
+      <c r="E205" s="8"/>
+    </row>
+    <row r="206" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A206" s="23">
+        <f t="shared" si="6"/>
+        <v>199</v>
+      </c>
+      <c r="B206" s="24"/>
+      <c r="E206" s="8"/>
+    </row>
+    <row r="207" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A207" s="23">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="B207" s="24"/>
+      <c r="E207" s="8"/>
+    </row>
+    <row r="208" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A208" s="23">
+        <f t="shared" si="6"/>
+        <v>201</v>
+      </c>
+      <c r="B208" s="24"/>
+      <c r="E208" s="8"/>
+    </row>
+    <row r="209" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A209" s="23">
+        <f t="shared" si="6"/>
+        <v>202</v>
+      </c>
+      <c r="B209" s="24"/>
+      <c r="E209" s="8"/>
+    </row>
+    <row r="210" spans="1:5" s="65" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="63">
+        <f t="shared" si="6"/>
+        <v>203</v>
+      </c>
+      <c r="B210" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C210" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E210" s="66"/>
+    </row>
+    <row r="211" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A211" s="23">
+        <f t="shared" si="6"/>
+        <v>204</v>
+      </c>
+      <c r="B211" s="24"/>
+      <c r="E211" s="8"/>
+    </row>
+    <row r="212" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A212" s="23">
+        <f t="shared" si="6"/>
+        <v>205</v>
+      </c>
+      <c r="B212" s="24"/>
+      <c r="E212" s="8"/>
+    </row>
+    <row r="213" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A213" s="23">
+        <f t="shared" si="6"/>
+        <v>206</v>
+      </c>
+      <c r="B213" s="24"/>
+      <c r="E213" s="8"/>
+    </row>
+    <row r="214" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A214" s="23">
+        <f t="shared" si="6"/>
+        <v>207</v>
+      </c>
+      <c r="B214" s="24"/>
+      <c r="E214" s="8"/>
+    </row>
+    <row r="215" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A215" s="23">
+        <f t="shared" si="6"/>
+        <v>208</v>
+      </c>
+      <c r="B215" s="24"/>
+      <c r="E215" s="8"/>
+    </row>
+    <row r="216" spans="1:5" s="65" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="63">
+        <f t="shared" si="6"/>
+        <v>209</v>
+      </c>
+      <c r="B216" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C216" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E216" s="66"/>
+    </row>
+    <row r="217" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A217" s="23">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="B217" s="24"/>
+      <c r="E217" s="8"/>
+    </row>
+    <row r="218" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A218" s="23">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="B218" s="24"/>
+      <c r="E218" s="8"/>
+    </row>
+    <row r="219" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A219" s="23">
+        <f t="shared" si="6"/>
+        <v>212</v>
+      </c>
+      <c r="B219" s="24"/>
+      <c r="E219" s="8"/>
+    </row>
+    <row r="220" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A220" s="23">
+        <f t="shared" si="6"/>
+        <v>213</v>
+      </c>
+      <c r="B220" s="24"/>
+      <c r="E220" s="8"/>
+    </row>
+    <row r="221" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A221" s="23">
+        <f t="shared" si="6"/>
+        <v>214</v>
+      </c>
+      <c r="B221" s="24"/>
+      <c r="E221" s="8"/>
+    </row>
+    <row r="222" spans="1:5" s="20" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="26">
+        <f t="shared" si="6"/>
+        <v>215</v>
+      </c>
+      <c r="B222" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C222" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E222" s="28"/>
+    </row>
+    <row r="223" spans="1:5" s="65" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="63">
+        <f t="shared" si="6"/>
+        <v>216</v>
+      </c>
+      <c r="B223" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" s="20" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B52" s="22" t="s">
+      <c r="C223" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="E223" s="66"/>
+    </row>
+    <row r="224" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A224" s="23">
+        <f t="shared" si="6"/>
+        <v>217</v>
+      </c>
+      <c r="B224" s="24"/>
+      <c r="E224" s="8"/>
+    </row>
+    <row r="225" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A225" s="23">
+        <f t="shared" si="6"/>
+        <v>218</v>
+      </c>
+      <c r="B225" s="24"/>
+      <c r="E225" s="8"/>
+    </row>
+    <row r="226" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A226" s="23">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+      <c r="B226" s="24"/>
+      <c r="E226" s="8"/>
+    </row>
+    <row r="227" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A227" s="23">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="B227" s="24"/>
+      <c r="E227" s="8"/>
+    </row>
+    <row r="228" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A228" s="23">
+        <f t="shared" si="6"/>
+        <v>221</v>
+      </c>
+      <c r="B228" s="24"/>
+      <c r="E228" s="8"/>
+    </row>
+    <row r="229" spans="1:5" s="65" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="63">
+        <f t="shared" si="6"/>
+        <v>222</v>
+      </c>
+      <c r="B229" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C229" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E229" s="66"/>
+    </row>
+    <row r="230" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A230" s="23">
+        <f t="shared" si="6"/>
+        <v>223</v>
+      </c>
+      <c r="B230" s="24"/>
+      <c r="E230" s="8"/>
+    </row>
+    <row r="231" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A231" s="23">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
+      <c r="B231" s="24"/>
+      <c r="E231" s="8"/>
+    </row>
+    <row r="232" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A232" s="23">
+        <f t="shared" si="6"/>
+        <v>225</v>
+      </c>
+      <c r="B232" s="24"/>
+      <c r="E232" s="8"/>
+    </row>
+    <row r="233" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A233" s="23">
+        <f t="shared" si="6"/>
+        <v>226</v>
+      </c>
+      <c r="B233" s="24"/>
+      <c r="E233" s="8"/>
+    </row>
+    <row r="234" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A234" s="23">
+        <f t="shared" si="6"/>
+        <v>227</v>
+      </c>
+      <c r="B234" s="24"/>
+      <c r="E234" s="8"/>
+    </row>
+    <row r="235" spans="1:5" s="65" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="63">
+        <f t="shared" si="6"/>
+        <v>228</v>
+      </c>
+      <c r="B235" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C235" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E235" s="66"/>
+    </row>
+    <row r="236" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A236" s="23">
+        <f t="shared" si="6"/>
+        <v>229</v>
+      </c>
+      <c r="B236" s="24"/>
+      <c r="E236" s="8"/>
+    </row>
+    <row r="237" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A237" s="23">
+        <f t="shared" si="6"/>
+        <v>230</v>
+      </c>
+      <c r="B237" s="24"/>
+      <c r="E237" s="8"/>
+    </row>
+    <row r="238" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A238" s="23">
+        <f t="shared" si="6"/>
+        <v>231</v>
+      </c>
+      <c r="B238" s="24"/>
+      <c r="E238" s="8"/>
+    </row>
+    <row r="239" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A239" s="23">
+        <f t="shared" si="6"/>
+        <v>232</v>
+      </c>
+      <c r="B239" s="24"/>
+      <c r="E239" s="8"/>
+    </row>
+    <row r="240" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A240" s="23">
+        <f t="shared" si="6"/>
+        <v>233</v>
+      </c>
+      <c r="B240" s="24"/>
+      <c r="E240" s="8"/>
+    </row>
+    <row r="241" spans="1:6" s="65" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="63">
+        <f t="shared" ref="A241:A246" si="7">$A240+1</f>
+        <v>234</v>
+      </c>
+      <c r="B241" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C241" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C55" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" s="8"/>
+      <c r="E241" s="66"/>
+    </row>
+    <row r="242" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A242" s="23">
+        <f t="shared" si="7"/>
+        <v>235</v>
+      </c>
+      <c r="B242" s="24"/>
+      <c r="C242" s="23"/>
+      <c r="D242" s="23"/>
+      <c r="E242" s="23"/>
+      <c r="F242" s="23"/>
+    </row>
+    <row r="243" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A243" s="23">
+        <f t="shared" si="7"/>
+        <v>236</v>
+      </c>
+      <c r="B243" s="24"/>
+      <c r="C243" s="23"/>
+      <c r="D243" s="23"/>
+      <c r="E243" s="23"/>
+      <c r="F243" s="23"/>
+    </row>
+    <row r="244" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A244" s="23">
+        <f t="shared" si="7"/>
+        <v>237</v>
+      </c>
+      <c r="B244" s="24"/>
+      <c r="C244" s="23"/>
+      <c r="D244" s="23"/>
+      <c r="E244" s="23"/>
+      <c r="F244" s="23"/>
+    </row>
+    <row r="245" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A245" s="23">
+        <f t="shared" si="7"/>
+        <v>238</v>
+      </c>
+      <c r="B245" s="24"/>
+      <c r="C245" s="23"/>
+      <c r="D245" s="23"/>
+      <c r="E245" s="23"/>
+      <c r="F245" s="23"/>
+    </row>
+    <row r="246" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A246" s="23">
+        <f t="shared" si="7"/>
+        <v>239</v>
+      </c>
+      <c r="B246" s="24"/>
+      <c r="C246" s="23"/>
+      <c r="D246" s="23"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F246">
       <formula1>Level_Req</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E246">
       <formula1>T_F</formula1>
     </dataValidation>
   </dataValidations>

--- a/System Specifications.xlsx
+++ b/System Specifications.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="1"/>
@@ -15,12 +15,12 @@
     <definedName name="Level_Req">'Non Functional Requirement'!$J$8:$J$11</definedName>
     <definedName name="T_F">'Non Functional Requirement'!$K$8:$K$9</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="184">
   <si>
     <t>System Specification</t>
   </si>
@@ -151,9 +151,6 @@
     <t>The times available for non-online operations including batch proccessing and system maintainance activities</t>
   </si>
   <si>
-    <t>Recilience</t>
-  </si>
-  <si>
     <t>The relaiability of system charactatistics or its sub components</t>
   </si>
   <si>
@@ -506,6 +503,75 @@
   </si>
   <si>
     <t>MeanTimeToFailure/ (MTTF+MTTRepair) &gt;= ?%</t>
+  </si>
+  <si>
+    <t>does service function in offline state?</t>
+  </si>
+  <si>
+    <t>does service need freequent updates?</t>
+  </si>
+  <si>
+    <t>Resilience</t>
+  </si>
+  <si>
+    <t>what does affect system enviromental scale?</t>
+  </si>
+  <si>
+    <t>can user edit his needs in system ?</t>
+  </si>
+  <si>
+    <t>what are excpecting data to look like ?</t>
+  </si>
+  <si>
+    <t>what're data areas more likely to enter diffrently?</t>
+  </si>
+  <si>
+    <t>does data need to be converted befroe compare ?</t>
+  </si>
+  <si>
+    <t>where could things go wrong ?</t>
+  </si>
+  <si>
+    <t>what's the techniques use to ensure data integrity ?</t>
+  </si>
+  <si>
+    <t>what data should be used for identification ?</t>
+  </si>
+  <si>
+    <t>what technique to be used to ensure data confide. ?</t>
+  </si>
+  <si>
+    <t>how should we ensure privacy ?</t>
+  </si>
+  <si>
+    <t>is it okay to be anonymous ?</t>
+  </si>
+  <si>
+    <t>who is responsible for accessing data?</t>
+  </si>
+  <si>
+    <t>who is able to authorise people to access data?</t>
+  </si>
+  <si>
+    <t>how data will be stored ?</t>
+  </si>
+  <si>
+    <t>who will have keys to data warehouse ?</t>
+  </si>
+  <si>
+    <t>should data be anonymised before its stored ?</t>
+  </si>
+  <si>
+    <t>who need access to hard data ?</t>
+  </si>
+  <si>
+    <t>how could person access data ?</t>
+  </si>
+  <si>
+    <t>what is tecnique used to access data?</t>
+  </si>
+  <si>
+    <t>ie mobile verication , normal username and password or generated password over time</t>
   </si>
 </sst>
 </file>
@@ -802,12 +868,6 @@
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -837,6 +897,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,7 +997,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1473,251 +1539,251 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="3"/>
-    <col min="6" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="27.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="6" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
     </row>
     <row r="5" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
     </row>
     <row r="6" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="35"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36"/>
     </row>
     <row r="7" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="35"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="9" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="35"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="36"/>
     </row>
     <row r="11" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
     </row>
     <row r="16" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="M17" s="3" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="M17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="M18" s="12" t="str">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="M18" s="10" t="str">
         <f>'Non Functional Requirement'!B1</f>
         <v>Non Functional Requirement</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="44">
+      <c r="B19" s="22"/>
+      <c r="C19" s="45">
         <v>25569</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-      <c r="M19" s="12" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
+      <c r="M19" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="M20" s="12"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="4"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="4"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="5"/>
-      <c r="E48" s="4"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="5"/>
-      <c r="E49" s="4"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="5"/>
-      <c r="E50" s="4"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="5"/>
-      <c r="E51" s="4"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="5"/>
-      <c r="E52" s="4"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D53" s="5"/>
-      <c r="E53" s="4"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D54" s="5"/>
-      <c r="E54" s="4"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D55" s="5"/>
-      <c r="E55" s="4"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D56" s="5"/>
-      <c r="E56" s="4"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D57" s="5"/>
-      <c r="E57" s="4"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D58" s="5"/>
-      <c r="E58" s="4"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="5"/>
-      <c r="E59" s="4"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="5"/>
-      <c r="E60" s="4"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D61" s="5"/>
-      <c r="E61" s="4"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D62" s="5"/>
-      <c r="E62" s="4"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D63" s="5"/>
-      <c r="E63" s="4"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D64" s="6"/>
-      <c r="E64" s="7"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1784,13 +1850,13 @@
   </sheetPr>
   <dimension ref="A1:L266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="125.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -1800,98 +1866,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="C1" s="49"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
@@ -1903,21 +1969,21 @@
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="9" t="b">
+      <c r="K8" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="L8" s="11"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <f t="shared" ref="A9:A35" si="0">$A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
@@ -1929,2591 +1995,2636 @@
       <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="9" t="b">
+      <c r="K9" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="J10" s="9" t="s">
+      <c r="B10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="J10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="J11" s="9" t="s">
+      <c r="B11" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="J11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <f t="shared" ref="A12:A21" si="1">$A11+1</f>
         <v>5</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="B13" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="B14" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="B16" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="B18" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="B19" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="B20" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <f t="shared" ref="A23:A34" si="2">$A22+1</f>
         <v>16</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="B23" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="B24" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="B25" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="B26" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="B27" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="B29" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="B30" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="B31" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="B32" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="A33" s="17">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="B33" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="17">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="17">
         <f>$A35+1</f>
         <v>29</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="B36" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="A37" s="17">
         <f t="shared" ref="A37:A47" si="3">$A36+1</f>
         <v>30</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="B37" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
+      <c r="A38" s="17">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="B38" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="17">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="B39" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+      <c r="A40" s="17">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="B40" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="A41" s="17">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="17">
         <f>$A41+1</f>
         <v>35</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="B42" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+      <c r="A43" s="17">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B43" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="B43" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
+      <c r="A44" s="17">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="B44" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="A45" s="17">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
+      <c r="A46" s="17">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
+      <c r="A47" s="17">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C47" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
+      <c r="A48" s="17">
         <f>$A47+1</f>
         <v>41</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="E48" s="8"/>
+      <c r="B48" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+      <c r="A49" s="17">
         <f t="shared" ref="A49:A112" si="4">$A48+1</f>
         <v>42</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="E49" s="8"/>
+      <c r="B49" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
+      <c r="A50" s="17">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="E50" s="8"/>
+      <c r="B50" s="18"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
+      <c r="A51" s="17">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="E51" s="8"/>
+      <c r="B51" s="18"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
+      <c r="A52" s="17">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="E52" s="8"/>
+      <c r="B52" s="18"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
+      <c r="A53" s="17">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" t="s">
         <v>43</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
-        <f t="shared" si="4"/>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="19">
-        <f t="shared" si="4"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="17">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="19">
-        <f t="shared" si="4"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="17">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B72" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="19">
-        <f t="shared" si="4"/>
+      <c r="C72" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="19">
-        <f t="shared" si="4"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="17">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="17">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="17">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="17">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="17">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="17">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="19">
-        <f t="shared" si="4"/>
+      <c r="C78" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="19">
-        <f t="shared" si="4"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="17">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="17">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="17">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="17">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="17">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="17">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
-        <f t="shared" si="4"/>
+      <c r="C84" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="19">
-        <f t="shared" si="4"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="17">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="17">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="17">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="17">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="17">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="B89" s="18"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="17">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="B90" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="19">
-        <f t="shared" si="4"/>
+      <c r="C90" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="19">
-        <f t="shared" si="4"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="17">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="17">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="17">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="17">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="17">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="17">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="19">
-        <f t="shared" si="4"/>
+      <c r="C96" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" t="s">
-        <v>48</v>
-      </c>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="19">
-        <f t="shared" si="4"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="17">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B97" s="18"/>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="17">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="17">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="B99" s="18"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="17">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="B100" s="18"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="17">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B101" s="18"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="17">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="B102" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="19">
-        <f t="shared" si="4"/>
+      <c r="C102" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="19">
-        <f t="shared" si="4"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="17">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="B103" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="19">
-        <f t="shared" si="4"/>
+      <c r="C103" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="19">
-        <f t="shared" si="4"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="17">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="B104" s="18"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="17">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="B105" s="18"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="17">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B106" s="18"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="17">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B107" s="18"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="17">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="B108" s="18"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="17">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="B109" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="19">
-        <f t="shared" si="4"/>
+      <c r="C109" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="19">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="19">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="19">
-        <f t="shared" si="4"/>
-        <v>67</v>
-      </c>
-      <c r="B74" s="20"/>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="19">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="B75" s="20"/>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="19">
-        <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="19">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="19">
-        <f t="shared" si="4"/>
-        <v>71</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="19">
-        <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="B79" s="20"/>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="19">
-        <f t="shared" si="4"/>
-        <v>73</v>
-      </c>
-      <c r="B80" s="20"/>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="19">
-        <f t="shared" si="4"/>
-        <v>74</v>
-      </c>
-      <c r="B81" s="20"/>
-      <c r="E81" s="8"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="19">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="B82" s="20"/>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="19">
-        <f t="shared" si="4"/>
-        <v>76</v>
-      </c>
-      <c r="B83" s="20"/>
-      <c r="E83" s="8"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="19">
-        <f t="shared" si="4"/>
-        <v>77</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C84" t="s">
-        <v>55</v>
-      </c>
-      <c r="E84" s="8"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="19">
-        <f t="shared" si="4"/>
-        <v>78</v>
-      </c>
-      <c r="B85" s="20"/>
-      <c r="E85" s="8"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="19">
-        <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="B86" s="20"/>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="19">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="B87" s="20"/>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="19">
-        <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="E88" s="8"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="19">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="B89" s="20"/>
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="19">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" t="s">
-        <v>57</v>
-      </c>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="19">
-        <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="B91" s="20"/>
-      <c r="E91" s="8"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="19">
-        <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-      <c r="B92" s="20"/>
-      <c r="E92" s="8"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="19">
-        <f t="shared" si="4"/>
-        <v>86</v>
-      </c>
-      <c r="B93" s="20"/>
-      <c r="E93" s="8"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="19">
-        <f t="shared" si="4"/>
-        <v>87</v>
-      </c>
-      <c r="B94" s="20"/>
-      <c r="E94" s="8"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="19">
-        <f t="shared" si="4"/>
-        <v>88</v>
-      </c>
-      <c r="B95" s="20"/>
-      <c r="E95" s="8"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="19">
-        <f t="shared" si="4"/>
-        <v>89</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C96" t="s">
-        <v>59</v>
-      </c>
-      <c r="E96" s="8"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="19">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="B97" s="20"/>
-      <c r="E97" s="8"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="19">
-        <f t="shared" si="4"/>
-        <v>91</v>
-      </c>
-      <c r="B98" s="20"/>
-      <c r="E98" s="8"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="19">
-        <f t="shared" si="4"/>
-        <v>92</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="E99" s="8"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="19">
-        <f t="shared" si="4"/>
-        <v>93</v>
-      </c>
-      <c r="B100" s="20"/>
-      <c r="E100" s="8"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="19">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="E101" s="8"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="19">
-        <f t="shared" si="4"/>
-        <v>95</v>
-      </c>
-      <c r="B102" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C102" t="s">
-        <v>61</v>
-      </c>
-      <c r="E102" s="8"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="19">
-        <f t="shared" si="4"/>
-        <v>96</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C103" t="s">
-        <v>63</v>
-      </c>
-      <c r="E103" s="8"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="19">
-        <f t="shared" si="4"/>
-        <v>97</v>
-      </c>
-      <c r="B104" s="20"/>
-      <c r="E104" s="8"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="19">
-        <f t="shared" si="4"/>
-        <v>98</v>
-      </c>
-      <c r="B105" s="20"/>
-      <c r="E105" s="8"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="19">
-        <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="B106" s="20"/>
-      <c r="E106" s="8"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="19">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="B107" s="20"/>
-      <c r="E107" s="8"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="19">
-        <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="B108" s="20"/>
-      <c r="E108" s="8"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="19">
-        <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" t="s">
-        <v>65</v>
-      </c>
-      <c r="E109" s="8"/>
+      <c r="E109" s="6"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="19">
+      <c r="A110" s="17">
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
-      <c r="B110" s="20"/>
-      <c r="E110" s="8"/>
+      <c r="B110" s="18"/>
+      <c r="E110" s="6"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="19">
+      <c r="A111" s="17">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="B111" s="20"/>
-      <c r="E111" s="8"/>
+      <c r="B111" s="18"/>
+      <c r="E111" s="6"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="19">
+      <c r="A112" s="17">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="B112" s="20"/>
-      <c r="E112" s="8"/>
+      <c r="B112" s="18"/>
+      <c r="E112" s="6"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="19">
+      <c r="A113" s="17">
         <f t="shared" ref="A113:A182" si="5">$A112+1</f>
         <v>106</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="E113" s="8"/>
+      <c r="B113" s="18"/>
+      <c r="E113" s="6"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="19">
+      <c r="A114" s="17">
         <f t="shared" si="5"/>
         <v>107</v>
       </c>
-      <c r="B114" s="20"/>
-      <c r="E114" s="8"/>
+      <c r="B114" s="18"/>
+      <c r="E114" s="6"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="19">
+      <c r="A115" s="17">
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="B115" s="21" t="s">
+      <c r="B115" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C115" t="s">
         <v>66</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="17">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="B116" s="18"/>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="17">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="B117" s="18"/>
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="17">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="B118" s="18"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="17">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="B119" s="18"/>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="17">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="B120" s="18"/>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="17">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="B121" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E115" s="8"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="19">
-        <f t="shared" si="5"/>
-        <v>109</v>
-      </c>
-      <c r="B116" s="20"/>
-      <c r="E116" s="8"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="19">
-        <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="B117" s="20"/>
-      <c r="E117" s="8"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="19">
-        <f t="shared" si="5"/>
-        <v>111</v>
-      </c>
-      <c r="B118" s="20"/>
-      <c r="E118" s="8"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="19">
-        <f t="shared" si="5"/>
-        <v>112</v>
-      </c>
-      <c r="B119" s="20"/>
-      <c r="E119" s="8"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="19">
-        <f t="shared" si="5"/>
-        <v>113</v>
-      </c>
-      <c r="B120" s="20"/>
-      <c r="E120" s="8"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="19">
-        <f t="shared" si="5"/>
-        <v>114</v>
-      </c>
-      <c r="B121" s="21" t="s">
+      <c r="C121" t="s">
         <v>68</v>
       </c>
-      <c r="C121" t="s">
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="17">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="B122" s="18"/>
+      <c r="E122" s="6"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="17">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="B123" s="18"/>
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="17">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+      <c r="B124" s="18"/>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="17">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="B125" s="18"/>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="17">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="B126" s="18"/>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="17">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="B127" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E121" s="8"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="19">
-        <f t="shared" si="5"/>
-        <v>115</v>
-      </c>
-      <c r="B122" s="20"/>
-      <c r="E122" s="8"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="19">
-        <f t="shared" si="5"/>
-        <v>116</v>
-      </c>
-      <c r="B123" s="20"/>
-      <c r="E123" s="8"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="19">
-        <f t="shared" si="5"/>
-        <v>117</v>
-      </c>
-      <c r="B124" s="20"/>
-      <c r="E124" s="8"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="19">
-        <f t="shared" si="5"/>
-        <v>118</v>
-      </c>
-      <c r="B125" s="20"/>
-      <c r="E125" s="8"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="19">
-        <f t="shared" si="5"/>
-        <v>119</v>
-      </c>
-      <c r="B126" s="20"/>
-      <c r="E126" s="8"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="19">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="B127" s="18" t="s">
+      <c r="C127" t="s">
         <v>70</v>
       </c>
-      <c r="C127" t="s">
+      <c r="E127" s="6"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="17">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" t="s">
         <v>71</v>
       </c>
-      <c r="E127" s="8"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="19">
-        <f t="shared" si="5"/>
-        <v>121</v>
-      </c>
-      <c r="B128" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="17">
+        <f t="shared" si="5"/>
+        <v>122</v>
+      </c>
+      <c r="B129" s="18"/>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="17">
+        <f t="shared" si="5"/>
+        <v>123</v>
+      </c>
+      <c r="B130" s="18"/>
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="17">
+        <f t="shared" si="5"/>
+        <v>124</v>
+      </c>
+      <c r="B131" s="18"/>
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="17">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="B132" s="18"/>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="17">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="B133" s="18"/>
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="17">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="B134" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E128" s="8"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="19">
-        <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="B129" s="20"/>
-      <c r="E129" s="8"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="19">
-        <f t="shared" si="5"/>
-        <v>123</v>
-      </c>
-      <c r="B130" s="20"/>
-      <c r="E130" s="8"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="19">
-        <f t="shared" si="5"/>
-        <v>124</v>
-      </c>
-      <c r="B131" s="20"/>
-      <c r="E131" s="8"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="19">
-        <f t="shared" si="5"/>
-        <v>125</v>
-      </c>
-      <c r="B132" s="20"/>
-      <c r="E132" s="8"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="19">
-        <f t="shared" si="5"/>
-        <v>126</v>
-      </c>
-      <c r="B133" s="20"/>
-      <c r="E133" s="8"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="19">
-        <f t="shared" si="5"/>
-        <v>127</v>
-      </c>
-      <c r="B134" s="21" t="s">
+      <c r="C134" t="s">
         <v>73</v>
       </c>
-      <c r="C134" t="s">
-        <v>74</v>
-      </c>
-      <c r="E134" s="8"/>
+      <c r="E134" s="6"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="19">
+      <c r="A135" s="17">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="B135" s="20"/>
-      <c r="E135" s="8"/>
+      <c r="B135" s="18"/>
+      <c r="E135" s="6"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="19">
+      <c r="A136" s="17">
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
-      <c r="B136" s="20"/>
-      <c r="E136" s="8"/>
+      <c r="B136" s="18"/>
+      <c r="E136" s="6"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="19">
+      <c r="A137" s="17">
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="B137" s="20"/>
-      <c r="E137" s="8"/>
+      <c r="B137" s="18"/>
+      <c r="E137" s="6"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="19">
+      <c r="A138" s="17">
         <f t="shared" si="5"/>
         <v>131</v>
       </c>
-      <c r="B138" s="20"/>
-      <c r="E138" s="8"/>
+      <c r="B138" s="18"/>
+      <c r="E138" s="6"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="19">
+      <c r="A139" s="17">
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="E139" s="8"/>
+      <c r="B139" s="18"/>
+      <c r="E139" s="6"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="19">
+      <c r="A140" s="17">
         <f>$A139+1</f>
         <v>133</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C140" t="s">
+        <v>74</v>
+      </c>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="17">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="B141" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E140" s="8"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="19">
-        <f t="shared" si="5"/>
-        <v>134</v>
-      </c>
-      <c r="B141" s="21" t="s">
+      <c r="C141" t="s">
         <v>76</v>
       </c>
-      <c r="C141" t="s">
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="17">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="B142" s="18"/>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="17">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="B143" s="18"/>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="17">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+      <c r="B144" s="18"/>
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="17">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="B145" s="18"/>
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="17">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+      <c r="B146" s="18"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="17">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="B147" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E141" s="8"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="19">
-        <f t="shared" si="5"/>
-        <v>135</v>
-      </c>
-      <c r="B142" s="20"/>
-      <c r="E142" s="8"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="19">
-        <f t="shared" si="5"/>
-        <v>136</v>
-      </c>
-      <c r="B143" s="20"/>
-      <c r="E143" s="8"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="19">
-        <f t="shared" si="5"/>
-        <v>137</v>
-      </c>
-      <c r="B144" s="20"/>
-      <c r="E144" s="8"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="19">
-        <f t="shared" si="5"/>
-        <v>138</v>
-      </c>
-      <c r="B145" s="20"/>
-      <c r="E145" s="8"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="19">
-        <f t="shared" si="5"/>
-        <v>139</v>
-      </c>
-      <c r="B146" s="20"/>
-      <c r="E146" s="8"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="19">
-        <f t="shared" si="5"/>
-        <v>140</v>
-      </c>
-      <c r="B147" s="21" t="s">
+      <c r="C147" t="s">
         <v>78</v>
       </c>
-      <c r="C147" t="s">
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="17">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="B148" s="18"/>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="17">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="B149" s="18"/>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="17">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="B150" s="18"/>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="17">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="B151" s="18"/>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="17">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="B152" s="18"/>
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="17">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+      <c r="B153" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E147" s="8"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="19">
-        <f t="shared" si="5"/>
-        <v>141</v>
-      </c>
-      <c r="B148" s="20"/>
-      <c r="E148" s="8"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="19">
-        <f t="shared" si="5"/>
-        <v>142</v>
-      </c>
-      <c r="B149" s="20"/>
-      <c r="E149" s="8"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="19">
-        <f t="shared" si="5"/>
-        <v>143</v>
-      </c>
-      <c r="B150" s="20"/>
-      <c r="E150" s="8"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="19">
-        <f t="shared" si="5"/>
-        <v>144</v>
-      </c>
-      <c r="B151" s="20"/>
-      <c r="E151" s="8"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="19">
-        <f t="shared" si="5"/>
-        <v>145</v>
-      </c>
-      <c r="B152" s="20"/>
-      <c r="E152" s="8"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="19">
-        <f t="shared" si="5"/>
-        <v>146</v>
-      </c>
-      <c r="B153" s="21" t="s">
+      <c r="C153" t="s">
         <v>80</v>
       </c>
-      <c r="C153" t="s">
-        <v>81</v>
-      </c>
-      <c r="E153" s="8"/>
+      <c r="E153" s="6"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="19">
+      <c r="A154" s="17">
         <f t="shared" si="5"/>
         <v>147</v>
       </c>
-      <c r="B154" s="20"/>
-      <c r="E154" s="8"/>
+      <c r="B154" s="18"/>
+      <c r="E154" s="6"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="19">
+      <c r="A155" s="17">
         <f t="shared" si="5"/>
         <v>148</v>
       </c>
-      <c r="B155" s="20"/>
-      <c r="E155" s="8"/>
+      <c r="B155" s="18"/>
+      <c r="E155" s="6"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="19">
+      <c r="A156" s="17">
         <f t="shared" si="5"/>
         <v>149</v>
       </c>
-      <c r="B156" s="20"/>
-      <c r="E156" s="8"/>
+      <c r="B156" s="18"/>
+      <c r="E156" s="6"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="19">
+      <c r="A157" s="17">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="B157" s="20"/>
-      <c r="E157" s="8"/>
+      <c r="B157" s="18"/>
+      <c r="E157" s="6"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="19">
+      <c r="A158" s="17">
         <f t="shared" si="5"/>
         <v>151</v>
       </c>
-      <c r="B158" s="20"/>
-      <c r="E158" s="8"/>
+      <c r="B158" s="18"/>
+      <c r="E158" s="6"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="19">
+      <c r="A159" s="17">
         <f>$A158+1</f>
         <v>152</v>
       </c>
-      <c r="B159" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="19"/>
+      <c r="B159" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="19">
+      <c r="A160" s="17">
         <f>$A159+1</f>
         <v>153</v>
       </c>
-      <c r="B160" s="20"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="19"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="19">
+      <c r="A161" s="17">
         <f>$A160+1</f>
         <v>154</v>
       </c>
-      <c r="B161" s="20"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="19">
+      <c r="A162" s="17">
         <f t="shared" ref="A162:A165" si="6">$A161+1</f>
         <v>155</v>
       </c>
-      <c r="B162" s="20"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="19"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="19">
+      <c r="A163" s="17">
         <f t="shared" si="6"/>
         <v>156</v>
       </c>
-      <c r="B163" s="20"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
+      <c r="B163" s="18"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="19">
+      <c r="A164" s="17">
         <f t="shared" si="6"/>
         <v>157</v>
       </c>
-      <c r="B164" s="20"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="19">
+      <c r="A165" s="17">
         <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="B165" s="18" t="s">
+      <c r="B165" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C165" t="s">
         <v>82</v>
       </c>
-      <c r="C165" t="s">
+      <c r="E165" s="6"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="17">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="B166" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E165" s="8"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="19">
-        <f t="shared" si="5"/>
-        <v>159</v>
-      </c>
-      <c r="B166" s="21" t="s">
+      <c r="C166" t="s">
         <v>84</v>
       </c>
-      <c r="C166" t="s">
+      <c r="E166" s="6"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="17">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E167" s="6"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="17">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E168" s="6"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="17">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E169" s="6"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="17">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E170" s="6"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="17">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E171" s="6"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="17">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="B172" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E166" s="8"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="19">
-        <f t="shared" si="5"/>
-        <v>160</v>
-      </c>
-      <c r="B167" s="20"/>
-      <c r="E167" s="8"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="19">
-        <f t="shared" si="5"/>
-        <v>161</v>
-      </c>
-      <c r="B168" s="20"/>
-      <c r="E168" s="8"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="19">
-        <f t="shared" si="5"/>
-        <v>162</v>
-      </c>
-      <c r="B169" s="20"/>
-      <c r="E169" s="8"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="19">
-        <f t="shared" si="5"/>
-        <v>163</v>
-      </c>
-      <c r="B170" s="20"/>
-      <c r="E170" s="8"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="19">
-        <f t="shared" si="5"/>
-        <v>164</v>
-      </c>
-      <c r="B171" s="20"/>
-      <c r="E171" s="8"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="19">
-        <f t="shared" si="5"/>
-        <v>165</v>
-      </c>
-      <c r="B172" s="21" t="s">
+      <c r="C172" t="s">
         <v>86</v>
       </c>
-      <c r="C172" t="s">
+      <c r="E172" s="6"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="17">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="B173" s="18"/>
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="17">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="B174" s="18"/>
+      <c r="E174" s="6"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="17">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="B175" s="18"/>
+      <c r="E175" s="6"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="17">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="B176" s="18"/>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="17">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="B177" s="18"/>
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="17">
+        <f t="shared" si="5"/>
+        <v>171</v>
+      </c>
+      <c r="B178" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E172" s="8"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="19">
-        <f t="shared" si="5"/>
-        <v>166</v>
-      </c>
-      <c r="B173" s="20"/>
-      <c r="E173" s="8"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="19">
-        <f t="shared" si="5"/>
-        <v>167</v>
-      </c>
-      <c r="B174" s="20"/>
-      <c r="E174" s="8"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="19">
-        <f t="shared" si="5"/>
-        <v>168</v>
-      </c>
-      <c r="B175" s="20"/>
-      <c r="E175" s="8"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="19">
-        <f t="shared" si="5"/>
-        <v>169</v>
-      </c>
-      <c r="B176" s="20"/>
-      <c r="E176" s="8"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="19">
-        <f t="shared" si="5"/>
-        <v>170</v>
-      </c>
-      <c r="B177" s="20"/>
-      <c r="E177" s="8"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="19">
-        <f t="shared" si="5"/>
-        <v>171</v>
-      </c>
-      <c r="B178" s="21" t="s">
+      <c r="C178" t="s">
         <v>88</v>
       </c>
-      <c r="C178" t="s">
-        <v>89</v>
-      </c>
-      <c r="E178" s="8"/>
+      <c r="E178" s="6"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="19">
+      <c r="A179" s="17">
         <f t="shared" si="5"/>
         <v>172</v>
       </c>
-      <c r="B179" s="20"/>
-      <c r="E179" s="8"/>
+      <c r="B179" s="18"/>
+      <c r="E179" s="6"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="19">
+      <c r="A180" s="17">
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="B180" s="20"/>
-      <c r="E180" s="8"/>
+      <c r="B180" s="18"/>
+      <c r="E180" s="6"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="19">
+      <c r="A181" s="17">
         <f t="shared" si="5"/>
         <v>174</v>
       </c>
-      <c r="B181" s="20"/>
-      <c r="E181" s="8"/>
+      <c r="B181" s="18"/>
+      <c r="E181" s="6"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="19">
+      <c r="A182" s="17">
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
-      <c r="B182" s="20"/>
-      <c r="E182" s="8"/>
+      <c r="B182" s="18"/>
+      <c r="E182" s="6"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="19">
+      <c r="A183" s="17">
         <f t="shared" ref="A183:A246" si="7">$A182+1</f>
         <v>176</v>
       </c>
-      <c r="B183" s="20"/>
-      <c r="E183" s="8"/>
+      <c r="B183" s="18"/>
+      <c r="E183" s="6"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="19">
+      <c r="A184" s="17">
         <f t="shared" si="7"/>
         <v>177</v>
       </c>
-      <c r="B184" s="21" t="s">
+      <c r="B184" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C184" t="s">
+        <v>92</v>
+      </c>
+      <c r="E184" s="6"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="17">
+        <f t="shared" si="7"/>
+        <v>178</v>
+      </c>
+      <c r="B185" s="18"/>
+      <c r="E185" s="6"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="17">
+        <f t="shared" si="7"/>
+        <v>179</v>
+      </c>
+      <c r="B186" s="18"/>
+      <c r="E186" s="6"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="17">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="B187" s="18"/>
+      <c r="E187" s="6"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="17">
+        <f t="shared" si="7"/>
+        <v>181</v>
+      </c>
+      <c r="B188" s="18"/>
+      <c r="E188" s="6"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="17">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+      <c r="B189" s="18"/>
+      <c r="E189" s="6"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="17">
+        <f t="shared" si="7"/>
+        <v>183</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C190" t="s">
         <v>90</v>
       </c>
-      <c r="C184" t="s">
+      <c r="E190" s="6"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="17">
+        <f t="shared" si="7"/>
+        <v>184</v>
+      </c>
+      <c r="B191" s="18"/>
+      <c r="E191" s="6"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="17">
+        <f t="shared" si="7"/>
+        <v>185</v>
+      </c>
+      <c r="B192" s="18"/>
+      <c r="E192" s="6"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="17">
+        <f t="shared" si="7"/>
+        <v>186</v>
+      </c>
+      <c r="B193" s="18"/>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="17">
+        <f t="shared" si="7"/>
+        <v>187</v>
+      </c>
+      <c r="B194" s="18"/>
+      <c r="E194" s="6"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="17">
+        <f t="shared" si="7"/>
+        <v>188</v>
+      </c>
+      <c r="B195" s="18"/>
+      <c r="E195" s="6"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="17">
+        <f t="shared" si="7"/>
+        <v>189</v>
+      </c>
+      <c r="B196" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E184" s="8"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="19">
-        <f t="shared" si="7"/>
-        <v>178</v>
-      </c>
-      <c r="B185" s="20"/>
-      <c r="E185" s="8"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="19">
-        <f t="shared" si="7"/>
-        <v>179</v>
-      </c>
-      <c r="B186" s="20"/>
-      <c r="E186" s="8"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="19">
-        <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-      <c r="B187" s="20"/>
-      <c r="E187" s="8"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="19">
-        <f t="shared" si="7"/>
-        <v>181</v>
-      </c>
-      <c r="B188" s="20"/>
-      <c r="E188" s="8"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="19">
-        <f t="shared" si="7"/>
-        <v>182</v>
-      </c>
-      <c r="B189" s="20"/>
-      <c r="E189" s="8"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="19">
-        <f t="shared" si="7"/>
-        <v>183</v>
-      </c>
-      <c r="B190" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C190" t="s">
-        <v>91</v>
-      </c>
-      <c r="E190" s="8"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="19">
-        <f t="shared" si="7"/>
-        <v>184</v>
-      </c>
-      <c r="B191" s="20"/>
-      <c r="E191" s="8"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="19">
-        <f t="shared" si="7"/>
-        <v>185</v>
-      </c>
-      <c r="B192" s="20"/>
-      <c r="E192" s="8"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="19">
-        <f t="shared" si="7"/>
-        <v>186</v>
-      </c>
-      <c r="B193" s="20"/>
-      <c r="E193" s="8"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="19">
-        <f t="shared" si="7"/>
-        <v>187</v>
-      </c>
-      <c r="B194" s="20"/>
-      <c r="E194" s="8"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="19">
-        <f t="shared" si="7"/>
-        <v>188</v>
-      </c>
-      <c r="B195" s="20"/>
-      <c r="E195" s="8"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="19">
-        <f t="shared" si="7"/>
-        <v>189</v>
-      </c>
-      <c r="B196" s="21" t="s">
+      <c r="C196" t="s">
         <v>94</v>
       </c>
-      <c r="C196" t="s">
+      <c r="E196" s="6"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="17">
+        <f t="shared" si="7"/>
+        <v>190</v>
+      </c>
+      <c r="B197" s="20"/>
+      <c r="C197" s="14"/>
+      <c r="E197" s="6"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="17">
+        <f t="shared" si="7"/>
+        <v>191</v>
+      </c>
+      <c r="B198" s="20"/>
+      <c r="C198" s="14"/>
+      <c r="E198" s="6"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="17">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+      <c r="B199" s="20"/>
+      <c r="C199" s="14"/>
+      <c r="E199" s="6"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="17">
+        <f t="shared" si="7"/>
+        <v>193</v>
+      </c>
+      <c r="B200" s="20"/>
+      <c r="C200" s="14"/>
+      <c r="E200" s="6"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="17">
+        <f t="shared" si="7"/>
+        <v>194</v>
+      </c>
+      <c r="B201" s="20"/>
+      <c r="C201" s="14"/>
+      <c r="E201" s="6"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="17">
+        <f t="shared" si="7"/>
+        <v>195</v>
+      </c>
+      <c r="B202" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E196" s="8"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="19">
-        <f t="shared" si="7"/>
-        <v>190</v>
-      </c>
-      <c r="B197" s="53"/>
-      <c r="C197" s="16"/>
-      <c r="E197" s="8"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="19">
-        <f t="shared" si="7"/>
-        <v>191</v>
-      </c>
-      <c r="B198" s="53"/>
-      <c r="C198" s="16"/>
-      <c r="E198" s="8"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="19">
-        <f t="shared" si="7"/>
-        <v>192</v>
-      </c>
-      <c r="B199" s="53"/>
-      <c r="C199" s="16"/>
-      <c r="E199" s="8"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="19">
-        <f t="shared" si="7"/>
-        <v>193</v>
-      </c>
-      <c r="B200" s="53"/>
-      <c r="C200" s="16"/>
-      <c r="E200" s="8"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="19">
-        <f t="shared" si="7"/>
-        <v>194</v>
-      </c>
-      <c r="B201" s="53"/>
-      <c r="C201" s="16"/>
-      <c r="E201" s="8"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="19">
-        <f t="shared" si="7"/>
-        <v>195</v>
-      </c>
-      <c r="B202" s="18" t="s">
+      <c r="C202" t="s">
         <v>96</v>
       </c>
-      <c r="C202" t="s">
+      <c r="E202" s="6"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="17">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+      <c r="B203" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E202" s="8"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="19">
-        <f t="shared" si="7"/>
-        <v>196</v>
-      </c>
-      <c r="B203" s="18" t="s">
+      <c r="C203" t="s">
         <v>98</v>
       </c>
-      <c r="C203" t="s">
+      <c r="E203" s="6"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="17">
+        <f t="shared" si="7"/>
+        <v>197</v>
+      </c>
+      <c r="B204" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E203" s="8"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="19">
-        <f t="shared" si="7"/>
-        <v>197</v>
-      </c>
-      <c r="B204" s="21" t="s">
+      <c r="C204" t="s">
         <v>100</v>
       </c>
-      <c r="C204" t="s">
+      <c r="E204" s="6"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="17">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+      <c r="B205" s="18"/>
+      <c r="E205" s="6"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="17">
+        <f t="shared" si="7"/>
+        <v>199</v>
+      </c>
+      <c r="B206" s="18"/>
+      <c r="E206" s="6"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="17">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="B207" s="18"/>
+      <c r="E207" s="6"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="17">
+        <f t="shared" si="7"/>
+        <v>201</v>
+      </c>
+      <c r="B208" s="18"/>
+      <c r="E208" s="6"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="17">
+        <f t="shared" si="7"/>
+        <v>202</v>
+      </c>
+      <c r="B209" s="18"/>
+      <c r="E209" s="6"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="17">
+        <f t="shared" si="7"/>
+        <v>203</v>
+      </c>
+      <c r="B210" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E204" s="8"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="19">
-        <f t="shared" si="7"/>
-        <v>198</v>
-      </c>
-      <c r="B205" s="20"/>
-      <c r="E205" s="8"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="19">
-        <f t="shared" si="7"/>
-        <v>199</v>
-      </c>
-      <c r="B206" s="20"/>
-      <c r="E206" s="8"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="19">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="B207" s="20"/>
-      <c r="E207" s="8"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="19">
-        <f t="shared" si="7"/>
-        <v>201</v>
-      </c>
-      <c r="B208" s="20"/>
-      <c r="E208" s="8"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="19">
-        <f t="shared" si="7"/>
-        <v>202</v>
-      </c>
-      <c r="B209" s="20"/>
-      <c r="E209" s="8"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="19">
-        <f t="shared" si="7"/>
-        <v>203</v>
-      </c>
-      <c r="B210" s="21" t="s">
+      <c r="C210" t="s">
         <v>102</v>
       </c>
-      <c r="C210" t="s">
+      <c r="E210" s="6"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="17">
+        <f t="shared" si="7"/>
+        <v>204</v>
+      </c>
+      <c r="B211" s="18"/>
+      <c r="E211" s="6"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="17">
+        <f t="shared" si="7"/>
+        <v>205</v>
+      </c>
+      <c r="B212" s="18"/>
+      <c r="E212" s="6"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="17">
+        <f t="shared" si="7"/>
+        <v>206</v>
+      </c>
+      <c r="B213" s="18"/>
+      <c r="E213" s="6"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="17">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+      <c r="B214" s="18"/>
+      <c r="E214" s="6"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="17">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+      <c r="B215" s="18"/>
+      <c r="E215" s="6"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="17">
+        <f t="shared" si="7"/>
+        <v>209</v>
+      </c>
+      <c r="B216" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E210" s="8"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="19">
-        <f t="shared" si="7"/>
-        <v>204</v>
-      </c>
-      <c r="B211" s="20"/>
-      <c r="E211" s="8"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="19">
-        <f t="shared" si="7"/>
-        <v>205</v>
-      </c>
-      <c r="B212" s="20"/>
-      <c r="E212" s="8"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="19">
-        <f t="shared" si="7"/>
-        <v>206</v>
-      </c>
-      <c r="B213" s="20"/>
-      <c r="E213" s="8"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="19">
-        <f t="shared" si="7"/>
-        <v>207</v>
-      </c>
-      <c r="B214" s="20"/>
-      <c r="E214" s="8"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="19">
-        <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-      <c r="B215" s="20"/>
-      <c r="E215" s="8"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="19">
-        <f t="shared" si="7"/>
-        <v>209</v>
-      </c>
-      <c r="B216" s="21" t="s">
+      <c r="C216" t="s">
         <v>104</v>
       </c>
-      <c r="C216" t="s">
+      <c r="E216" s="6"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="17">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="B217" s="18"/>
+      <c r="E217" s="6"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="17">
+        <f t="shared" si="7"/>
+        <v>211</v>
+      </c>
+      <c r="B218" s="18"/>
+      <c r="E218" s="6"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="17">
+        <f t="shared" si="7"/>
+        <v>212</v>
+      </c>
+      <c r="B219" s="18"/>
+      <c r="E219" s="6"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="17">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+      <c r="B220" s="18"/>
+      <c r="E220" s="6"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="17">
+        <f t="shared" si="7"/>
+        <v>214</v>
+      </c>
+      <c r="B221" s="18"/>
+      <c r="E221" s="6"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="17">
+        <f t="shared" si="7"/>
+        <v>215</v>
+      </c>
+      <c r="B222" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E216" s="8"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="19">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="B217" s="20"/>
-      <c r="E217" s="8"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="19">
-        <f t="shared" si="7"/>
-        <v>211</v>
-      </c>
-      <c r="B218" s="20"/>
-      <c r="E218" s="8"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="19">
-        <f t="shared" si="7"/>
-        <v>212</v>
-      </c>
-      <c r="B219" s="20"/>
-      <c r="E219" s="8"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="19">
-        <f t="shared" si="7"/>
-        <v>213</v>
-      </c>
-      <c r="B220" s="20"/>
-      <c r="E220" s="8"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="19">
-        <f t="shared" si="7"/>
-        <v>214</v>
-      </c>
-      <c r="B221" s="20"/>
-      <c r="E221" s="8"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="19">
-        <f t="shared" si="7"/>
-        <v>215</v>
-      </c>
-      <c r="B222" s="21" t="s">
+      <c r="C222" t="s">
         <v>106</v>
       </c>
-      <c r="C222" t="s">
+      <c r="E222" s="6"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="17">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+      <c r="B223" s="18"/>
+      <c r="E223" s="6"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="17">
+        <f t="shared" si="7"/>
+        <v>217</v>
+      </c>
+      <c r="B224" s="18"/>
+      <c r="E224" s="6"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="17">
+        <f t="shared" si="7"/>
+        <v>218</v>
+      </c>
+      <c r="B225" s="18"/>
+      <c r="E225" s="6"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="17">
+        <f t="shared" si="7"/>
+        <v>219</v>
+      </c>
+      <c r="B226" s="18"/>
+      <c r="E226" s="6"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="17">
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
+      <c r="B227" s="18"/>
+      <c r="E227" s="6"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="17">
+        <f t="shared" si="7"/>
+        <v>221</v>
+      </c>
+      <c r="B228" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E222" s="8"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="19">
-        <f t="shared" si="7"/>
-        <v>216</v>
-      </c>
-      <c r="B223" s="20"/>
-      <c r="E223" s="8"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="19">
-        <f t="shared" si="7"/>
-        <v>217</v>
-      </c>
-      <c r="B224" s="20"/>
-      <c r="E224" s="8"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="19">
-        <f t="shared" si="7"/>
-        <v>218</v>
-      </c>
-      <c r="B225" s="20"/>
-      <c r="E225" s="8"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="19">
-        <f t="shared" si="7"/>
-        <v>219</v>
-      </c>
-      <c r="B226" s="20"/>
-      <c r="E226" s="8"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="19">
-        <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-      <c r="B227" s="20"/>
-      <c r="E227" s="8"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="19">
-        <f t="shared" si="7"/>
-        <v>221</v>
-      </c>
-      <c r="B228" s="18" t="s">
+      <c r="C228" t="s">
         <v>108</v>
       </c>
-      <c r="C228" t="s">
+      <c r="E228" s="6"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="17">
+        <f t="shared" si="7"/>
+        <v>222</v>
+      </c>
+      <c r="B229" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E228" s="8"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="19">
-        <f t="shared" si="7"/>
-        <v>222</v>
-      </c>
-      <c r="B229" s="21" t="s">
+      <c r="C229" t="s">
         <v>110</v>
       </c>
-      <c r="C229" t="s">
+      <c r="E229" s="6"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="17">
+        <f t="shared" si="7"/>
+        <v>223</v>
+      </c>
+      <c r="B230" s="18"/>
+      <c r="E230" s="6"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="17">
+        <f t="shared" si="7"/>
+        <v>224</v>
+      </c>
+      <c r="B231" s="18"/>
+      <c r="E231" s="6"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="17">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="B232" s="18"/>
+      <c r="E232" s="6"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="17">
+        <f t="shared" si="7"/>
+        <v>226</v>
+      </c>
+      <c r="B233" s="18"/>
+      <c r="E233" s="6"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="17">
+        <f t="shared" si="7"/>
+        <v>227</v>
+      </c>
+      <c r="B234" s="18"/>
+      <c r="E234" s="6"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="17">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
+      <c r="B235" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E229" s="8"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="19">
-        <f t="shared" si="7"/>
-        <v>223</v>
-      </c>
-      <c r="B230" s="20"/>
-      <c r="E230" s="8"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="19">
-        <f t="shared" si="7"/>
-        <v>224</v>
-      </c>
-      <c r="B231" s="20"/>
-      <c r="E231" s="8"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="19">
-        <f t="shared" si="7"/>
-        <v>225</v>
-      </c>
-      <c r="B232" s="20"/>
-      <c r="E232" s="8"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="19">
-        <f t="shared" si="7"/>
-        <v>226</v>
-      </c>
-      <c r="B233" s="20"/>
-      <c r="E233" s="8"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="19">
-        <f t="shared" si="7"/>
-        <v>227</v>
-      </c>
-      <c r="B234" s="20"/>
-      <c r="E234" s="8"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="19">
-        <f t="shared" si="7"/>
-        <v>228</v>
-      </c>
-      <c r="B235" s="21" t="s">
+      <c r="C235" t="s">
         <v>112</v>
       </c>
-      <c r="C235" t="s">
+      <c r="E235" s="6"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="17">
+        <f t="shared" si="7"/>
+        <v>229</v>
+      </c>
+      <c r="B236" s="18"/>
+      <c r="E236" s="6"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="17">
+        <f t="shared" si="7"/>
+        <v>230</v>
+      </c>
+      <c r="B237" s="18"/>
+      <c r="E237" s="6"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="17">
+        <f t="shared" si="7"/>
+        <v>231</v>
+      </c>
+      <c r="B238" s="18"/>
+      <c r="E238" s="6"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="17">
+        <f t="shared" si="7"/>
+        <v>232</v>
+      </c>
+      <c r="B239" s="18"/>
+      <c r="E239" s="6"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="17">
+        <f t="shared" si="7"/>
+        <v>233</v>
+      </c>
+      <c r="B240" s="18"/>
+      <c r="E240" s="6"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="17">
+        <f t="shared" si="7"/>
+        <v>234</v>
+      </c>
+      <c r="B241" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E235" s="8"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="19">
-        <f t="shared" si="7"/>
-        <v>229</v>
-      </c>
-      <c r="B236" s="20"/>
-      <c r="E236" s="8"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="19">
-        <f t="shared" si="7"/>
-        <v>230</v>
-      </c>
-      <c r="B237" s="20"/>
-      <c r="E237" s="8"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="19">
-        <f t="shared" si="7"/>
-        <v>231</v>
-      </c>
-      <c r="B238" s="20"/>
-      <c r="E238" s="8"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="19">
-        <f t="shared" si="7"/>
-        <v>232</v>
-      </c>
-      <c r="B239" s="20"/>
-      <c r="E239" s="8"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="19">
-        <f t="shared" si="7"/>
-        <v>233</v>
-      </c>
-      <c r="B240" s="20"/>
-      <c r="E240" s="8"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="19">
-        <f t="shared" si="7"/>
-        <v>234</v>
-      </c>
-      <c r="B241" s="21" t="s">
+      <c r="C241" t="s">
         <v>114</v>
       </c>
-      <c r="C241" t="s">
-        <v>115</v>
-      </c>
-      <c r="E241" s="8"/>
+      <c r="E241" s="6"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="19">
+      <c r="A242" s="17">
         <f t="shared" si="7"/>
         <v>235</v>
       </c>
-      <c r="B242" s="20"/>
-      <c r="E242" s="8"/>
+      <c r="B242" s="18"/>
+      <c r="E242" s="6"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="19">
+      <c r="A243" s="17">
         <f t="shared" si="7"/>
         <v>236</v>
       </c>
-      <c r="B243" s="20"/>
-      <c r="E243" s="8"/>
+      <c r="B243" s="18"/>
+      <c r="E243" s="6"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="19">
+      <c r="A244" s="17">
         <f t="shared" si="7"/>
         <v>237</v>
       </c>
-      <c r="B244" s="20"/>
-      <c r="E244" s="8"/>
+      <c r="B244" s="18"/>
+      <c r="E244" s="6"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="19">
+      <c r="A245" s="17">
         <f t="shared" si="7"/>
         <v>238</v>
       </c>
-      <c r="B245" s="20"/>
-      <c r="E245" s="8"/>
+      <c r="B245" s="18"/>
+      <c r="E245" s="6"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="19">
+      <c r="A246" s="17">
         <f t="shared" si="7"/>
         <v>239</v>
       </c>
-      <c r="B246" s="20"/>
-      <c r="E246" s="8"/>
+      <c r="B246" s="18"/>
+      <c r="E246" s="6"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="19">
+      <c r="A247" s="17">
         <f t="shared" ref="A247:A252" si="8">$A246+1</f>
         <v>240</v>
       </c>
-      <c r="B247" s="21" t="s">
+      <c r="B247" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C247" t="s">
         <v>116</v>
       </c>
-      <c r="C247" t="s">
-        <v>117</v>
-      </c>
-      <c r="E247" s="8"/>
+      <c r="E247" s="6"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="19">
+      <c r="A248" s="17">
         <f t="shared" si="8"/>
         <v>241</v>
       </c>
-      <c r="B248" s="20"/>
-      <c r="C248" s="19"/>
-      <c r="D248" s="19"/>
-      <c r="E248" s="19"/>
-      <c r="F248" s="19"/>
+      <c r="B248" s="18"/>
+      <c r="C248" s="17"/>
+      <c r="D248" s="17"/>
+      <c r="E248" s="17"/>
+      <c r="F248" s="17"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="19">
+      <c r="A249" s="17">
         <f t="shared" si="8"/>
         <v>242</v>
       </c>
-      <c r="B249" s="20"/>
-      <c r="C249" s="19"/>
-      <c r="D249" s="19"/>
-      <c r="E249" s="19"/>
-      <c r="F249" s="19"/>
+      <c r="B249" s="18"/>
+      <c r="C249" s="17"/>
+      <c r="D249" s="17"/>
+      <c r="E249" s="17"/>
+      <c r="F249" s="17"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="19">
+      <c r="A250" s="17">
         <f t="shared" si="8"/>
         <v>243</v>
       </c>
-      <c r="B250" s="20"/>
-      <c r="C250" s="19"/>
-      <c r="D250" s="19"/>
-      <c r="E250" s="19"/>
-      <c r="F250" s="19"/>
+      <c r="B250" s="18"/>
+      <c r="C250" s="17"/>
+      <c r="D250" s="17"/>
+      <c r="E250" s="17"/>
+      <c r="F250" s="17"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="19">
+      <c r="A251" s="17">
         <f t="shared" si="8"/>
         <v>244</v>
       </c>
-      <c r="B251" s="20"/>
-      <c r="C251" s="19"/>
-      <c r="D251" s="19"/>
-      <c r="E251" s="19"/>
-      <c r="F251" s="19"/>
+      <c r="B251" s="18"/>
+      <c r="C251" s="17"/>
+      <c r="D251" s="17"/>
+      <c r="E251" s="17"/>
+      <c r="F251" s="17"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="19">
+      <c r="A252" s="17">
         <f t="shared" si="8"/>
         <v>245</v>
       </c>
-      <c r="B252" s="20"/>
-      <c r="C252" s="19"/>
-      <c r="D252" s="19"/>
-      <c r="E252" s="19"/>
-      <c r="F252" s="19"/>
+      <c r="B252" s="18"/>
+      <c r="C252" s="17"/>
+      <c r="D252" s="17"/>
+      <c r="E252" s="17"/>
+      <c r="F252" s="17"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="19">
+      <c r="A253" s="17">
         <f t="shared" ref="A253" si="9">$A252+1</f>
         <v>246</v>
       </c>
-      <c r="B253" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C253" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D253" s="19"/>
-      <c r="E253" s="19"/>
-      <c r="F253" s="19"/>
+      <c r="B253" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C253" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D253" s="17"/>
+      <c r="E253" s="17"/>
+      <c r="F253" s="17"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="19">
+      <c r="A254" s="17">
         <f>$A253+1</f>
         <v>247</v>
       </c>
-      <c r="B254" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C254" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D254" s="19"/>
-      <c r="E254" s="19"/>
-      <c r="F254" s="19"/>
+      <c r="B254" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C254" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D254" s="17"/>
+      <c r="E254" s="17"/>
+      <c r="F254" s="17"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="19">
+      <c r="A255" s="17">
         <f>$A254+1</f>
         <v>248</v>
       </c>
-      <c r="B255" s="20"/>
-      <c r="C255" s="19"/>
-      <c r="D255" s="19"/>
-      <c r="E255" s="19"/>
-      <c r="F255" s="19"/>
+      <c r="B255" s="18"/>
+      <c r="C255" s="17"/>
+      <c r="D255" s="17"/>
+      <c r="E255" s="17"/>
+      <c r="F255" s="17"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="19">
+      <c r="A256" s="17">
         <f t="shared" ref="A256:A260" si="10">$A255+1</f>
         <v>249</v>
       </c>
-      <c r="B256" s="20"/>
-      <c r="C256" s="19"/>
-      <c r="D256" s="19"/>
-      <c r="E256" s="19"/>
-      <c r="F256" s="19"/>
+      <c r="B256" s="18"/>
+      <c r="C256" s="17"/>
+      <c r="D256" s="17"/>
+      <c r="E256" s="17"/>
+      <c r="F256" s="17"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="19">
+      <c r="A257" s="17">
         <f t="shared" si="10"/>
         <v>250</v>
       </c>
-      <c r="B257" s="20"/>
-      <c r="C257" s="19"/>
-      <c r="D257" s="19"/>
-      <c r="E257" s="19"/>
-      <c r="F257" s="19"/>
+      <c r="B257" s="18"/>
+      <c r="C257" s="17"/>
+      <c r="D257" s="17"/>
+      <c r="E257" s="17"/>
+      <c r="F257" s="17"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="19">
+      <c r="A258" s="17">
         <f t="shared" si="10"/>
         <v>251</v>
       </c>
-      <c r="B258" s="20"/>
-      <c r="C258" s="19"/>
-      <c r="D258" s="19"/>
-      <c r="E258" s="19"/>
-      <c r="F258" s="19"/>
+      <c r="B258" s="18"/>
+      <c r="C258" s="17"/>
+      <c r="D258" s="17"/>
+      <c r="E258" s="17"/>
+      <c r="F258" s="17"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="19">
+      <c r="A259" s="17">
         <f t="shared" si="10"/>
         <v>252</v>
       </c>
-      <c r="B259" s="20"/>
-      <c r="C259" s="19"/>
-      <c r="D259" s="19"/>
-      <c r="E259" s="19"/>
-      <c r="F259" s="19"/>
+      <c r="B259" s="18"/>
+      <c r="C259" s="17"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="17"/>
+      <c r="F259" s="17"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="19">
+      <c r="A260" s="17">
         <f t="shared" si="10"/>
         <v>253</v>
       </c>
-      <c r="B260" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C260" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D260" s="19"/>
-      <c r="E260" s="19"/>
-      <c r="F260" s="19"/>
+      <c r="B260" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C260" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D260" s="17"/>
+      <c r="E260" s="17"/>
+      <c r="F260" s="17"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="19">
+      <c r="A261" s="17">
         <f t="shared" ref="A261:A266" si="11">$A260+1</f>
         <v>254</v>
       </c>
-      <c r="B261" s="20"/>
-      <c r="C261" s="19"/>
-      <c r="D261" s="19"/>
-      <c r="E261" s="19"/>
-      <c r="F261" s="19"/>
+      <c r="B261" s="18"/>
+      <c r="C261" s="17"/>
+      <c r="D261" s="17"/>
+      <c r="E261" s="17"/>
+      <c r="F261" s="17"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="19">
+      <c r="A262" s="17">
         <f t="shared" si="11"/>
         <v>255</v>
       </c>
-      <c r="B262" s="20"/>
-      <c r="C262" s="19"/>
-      <c r="D262" s="19"/>
-      <c r="E262" s="19"/>
-      <c r="F262" s="19"/>
+      <c r="B262" s="18"/>
+      <c r="C262" s="17"/>
+      <c r="D262" s="17"/>
+      <c r="E262" s="17"/>
+      <c r="F262" s="17"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="19">
+      <c r="A263" s="17">
         <f t="shared" si="11"/>
         <v>256</v>
       </c>
-      <c r="B263" s="20"/>
-      <c r="C263" s="19"/>
-      <c r="D263" s="19"/>
-      <c r="E263" s="19"/>
-      <c r="F263" s="19"/>
+      <c r="B263" s="18"/>
+      <c r="C263" s="17"/>
+      <c r="D263" s="17"/>
+      <c r="E263" s="17"/>
+      <c r="F263" s="17"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="19">
+      <c r="A264" s="17">
         <f t="shared" si="11"/>
         <v>257</v>
       </c>
-      <c r="B264" s="20"/>
-      <c r="C264" s="19"/>
-      <c r="D264" s="19"/>
-      <c r="E264" s="19"/>
-      <c r="F264" s="19"/>
+      <c r="B264" s="18"/>
+      <c r="C264" s="17"/>
+      <c r="D264" s="17"/>
+      <c r="E264" s="17"/>
+      <c r="F264" s="17"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="19">
+      <c r="A265" s="17">
         <f t="shared" si="11"/>
         <v>258</v>
       </c>
-      <c r="B265" s="20"/>
-      <c r="C265" s="19"/>
-      <c r="D265" s="19"/>
-      <c r="E265" s="19"/>
-      <c r="F265" s="19"/>
+      <c r="B265" s="18"/>
+      <c r="C265" s="17"/>
+      <c r="D265" s="17"/>
+      <c r="E265" s="17"/>
+      <c r="F265" s="17"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="19">
+      <c r="A266" s="17">
         <f t="shared" si="11"/>
         <v>259</v>
       </c>
-      <c r="B266" s="19"/>
-      <c r="C266" s="19"/>
-      <c r="D266" s="19"/>
-      <c r="E266" s="19"/>
-      <c r="F266" s="19"/>
+      <c r="B266" s="17"/>
+      <c r="C266" s="17"/>
+      <c r="D266" s="17"/>
+      <c r="E266" s="17"/>
+      <c r="F266" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/System Specifications.xlsx
+++ b/System Specifications.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="1"/>
@@ -15,12 +15,12 @@
     <definedName name="Level_Req">'Non Functional Requirement'!$J$8:$J$11</definedName>
     <definedName name="T_F">'Non Functional Requirement'!$K$8:$K$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="216">
   <si>
     <t>System Specification</t>
   </si>
@@ -277,9 +277,6 @@
     <t xml:space="preserve">Correctness &amp; completeness of data must be maintained  in the system </t>
   </si>
   <si>
-    <t>Data backup &amp; restore</t>
-  </si>
-  <si>
     <t>Creating secure backups of the operational data stores and the restoration of backup should become unnessary</t>
   </si>
   <si>
@@ -572,6 +569,105 @@
   </si>
   <si>
     <t>ie mobile verication , normal username and password or generated password over time</t>
+  </si>
+  <si>
+    <t>can this system be used in more than one country?</t>
+  </si>
+  <si>
+    <t>what currency will be used in system?</t>
+  </si>
+  <si>
+    <t>does system some how involved with cilture?</t>
+  </si>
+  <si>
+    <t>does system be used by different people and nationalities ?</t>
+  </si>
+  <si>
+    <t>does system has constriant about region? If does what is it ?</t>
+  </si>
+  <si>
+    <t>does system break any rules with gov. ?</t>
+  </si>
+  <si>
+    <t>does system be used by gov. organization ?</t>
+  </si>
+  <si>
+    <t>does system affect the public ?</t>
+  </si>
+  <si>
+    <t>does system have infulance on gov. decissions?</t>
+  </si>
+  <si>
+    <t>what is accptance system false/bad results rate ?</t>
+  </si>
+  <si>
+    <t>does project conceder legal to be used ?</t>
+  </si>
+  <si>
+    <t>can system be used in different organization ?</t>
+  </si>
+  <si>
+    <t>what is more likely features to be added to system ?</t>
+  </si>
+  <si>
+    <t>what is backup technique should be used?</t>
+  </si>
+  <si>
+    <t>how often should system create a backup?</t>
+  </si>
+  <si>
+    <t>Data backup</t>
+  </si>
+  <si>
+    <t>is it okay to add extra features without affecting time and effort?</t>
+  </si>
+  <si>
+    <t>does gov. allow this kind of systems?</t>
+  </si>
+  <si>
+    <t>does project have enough budget ?</t>
+  </si>
+  <si>
+    <t>does project have enough workers?</t>
+  </si>
+  <si>
+    <t>does current technology allow us to implement system ?</t>
+  </si>
+  <si>
+    <t>based on risk analysis could project be completed in given time ?</t>
+  </si>
+  <si>
+    <t>based on risk analysis could we implement project ?</t>
+  </si>
+  <si>
+    <t>what operating system will be used ?</t>
+  </si>
+  <si>
+    <t>what kind of users will be using the system ?</t>
+  </si>
+  <si>
+    <t>range how old users will be using the system ?</t>
+  </si>
+  <si>
+    <t>does user who use this system have special needs ?</t>
+  </si>
+  <si>
+    <t>what's components should be available to increase productivity?</t>
+  </si>
+  <si>
+    <t>does the system integrated with other systems ?</t>
+  </si>
+  <si>
+    <t>what's the MAX size of report ?</t>
+  </si>
+  <si>
+    <t>how should the report be displayed?</t>
+  </si>
+  <si>
+    <t>how should data be formated ?</t>
+  </si>
+  <si>
+    <t>how should data be distruputed ?</t>
   </si>
 </sst>
 </file>
@@ -866,7 +962,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -898,6 +994,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1548,168 +1645,168 @@
   <sheetData>
     <row r="3" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="6" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="37"/>
     </row>
     <row r="7" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
     </row>
     <row r="9" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="36"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="37"/>
     </row>
     <row r="10" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="36"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
     </row>
     <row r="11" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
     </row>
     <row r="16" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
       <c r="M17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
       <c r="M18" s="10" t="str">
         <f>'Non Functional Requirement'!B1</f>
         <v>Non Functional Requirement</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="45">
+      <c r="B19" s="23"/>
+      <c r="C19" s="46">
         <v>25569</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
       <c r="M19" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E46" s="2"/>
@@ -1850,14 +1947,14 @@
   </sheetPr>
   <dimension ref="A1:L266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="125.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1869,10 +1966,10 @@
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="50"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="J1" s="8"/>
@@ -1881,8 +1978,8 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="J2" s="8"/>
@@ -1891,8 +1988,8 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="J3" s="8"/>
@@ -1901,8 +1998,8 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="J4" s="8"/>
@@ -1910,8 +2007,8 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="J5" s="8"/>
@@ -1934,10 +2031,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>12</v>
@@ -2008,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -2024,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -2040,7 +2137,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -2053,7 +2150,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -2066,7 +2163,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -2092,7 +2189,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -2105,7 +2202,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -2118,7 +2215,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -2131,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -2144,7 +2241,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -2183,7 +2280,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -2196,7 +2293,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -2209,7 +2306,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -2222,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -2235,7 +2332,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -2261,7 +2358,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -2274,7 +2371,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -2287,7 +2384,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -2300,7 +2397,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -2313,7 +2410,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -2352,7 +2449,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -2365,7 +2462,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -2378,7 +2475,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -2391,7 +2488,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -2404,7 +2501,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -2430,10 +2527,10 @@
         <v>35</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
@@ -2445,7 +2542,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -2458,7 +2555,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -2506,7 +2603,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E48" s="6"/>
     </row>
@@ -2516,7 +2613,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E49" s="6"/>
     </row>
@@ -2550,7 +2647,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
         <v>43</v>
@@ -2563,7 +2660,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E54" s="6"/>
     </row>
@@ -2573,7 +2670,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E55" s="6"/>
     </row>
@@ -2620,7 +2717,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -2633,7 +2730,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -2646,7 +2743,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -2659,7 +2756,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -2672,7 +2769,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -2779,7 +2876,7 @@
         <v>66</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E73" s="6"/>
     </row>
@@ -2789,7 +2886,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E74" s="6"/>
     </row>
@@ -2799,10 +2896,10 @@
         <v>68</v>
       </c>
       <c r="B75" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" t="s">
         <v>182</v>
-      </c>
-      <c r="C75" t="s">
-        <v>183</v>
       </c>
       <c r="E75" s="6"/>
     </row>
@@ -2841,7 +2938,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E79" s="6"/>
     </row>
@@ -2896,7 +2993,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E85" s="6"/>
     </row>
@@ -2906,7 +3003,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E86" s="6"/>
     </row>
@@ -2916,7 +3013,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E87" s="6"/>
     </row>
@@ -2926,7 +3023,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E88" s="6"/>
     </row>
@@ -2957,7 +3054,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E91" s="6"/>
     </row>
@@ -2967,7 +3064,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E92" s="6"/>
     </row>
@@ -2977,7 +3074,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E93" s="6"/>
     </row>
@@ -2987,7 +3084,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E94" s="6"/>
     </row>
@@ -3308,7 +3405,9 @@
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="B129" s="18"/>
+      <c r="B129" s="18" t="s">
+        <v>206</v>
+      </c>
       <c r="E129" s="6"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3316,7 +3415,9 @@
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="B130" s="18"/>
+      <c r="B130" s="18" t="s">
+        <v>207</v>
+      </c>
       <c r="E130" s="6"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3324,7 +3425,9 @@
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="B131" s="18"/>
+      <c r="B131" s="18" t="s">
+        <v>208</v>
+      </c>
       <c r="E131" s="6"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3332,7 +3435,9 @@
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="B132" s="18"/>
+      <c r="B132" s="18" t="s">
+        <v>209</v>
+      </c>
       <c r="E132" s="6"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3340,7 +3445,9 @@
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="B133" s="18"/>
+      <c r="B133" s="18" t="s">
+        <v>210</v>
+      </c>
       <c r="E133" s="6"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3574,7 +3681,7 @@
         <v>152</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
@@ -3668,7 +3775,7 @@
         <v>160</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E167" s="6"/>
     </row>
@@ -3678,7 +3785,7 @@
         <v>161</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E168" s="6"/>
     </row>
@@ -3688,7 +3795,7 @@
         <v>162</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E169" s="6"/>
     </row>
@@ -3698,7 +3805,7 @@
         <v>163</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E170" s="6"/>
     </row>
@@ -3708,7 +3815,7 @@
         <v>164</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E171" s="6"/>
     </row>
@@ -3718,10 +3825,10 @@
         <v>165</v>
       </c>
       <c r="B172" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C172" t="s">
         <v>85</v>
-      </c>
-      <c r="C172" t="s">
-        <v>86</v>
       </c>
       <c r="E172" s="6"/>
     </row>
@@ -3730,7 +3837,9 @@
         <f t="shared" si="5"/>
         <v>166</v>
       </c>
-      <c r="B173" s="18"/>
+      <c r="B173" s="18" t="s">
+        <v>196</v>
+      </c>
       <c r="E173" s="6"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -3738,7 +3847,9 @@
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="B174" s="18"/>
+      <c r="B174" s="18" t="s">
+        <v>197</v>
+      </c>
       <c r="E174" s="6"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -3771,10 +3882,10 @@
         <v>171</v>
       </c>
       <c r="B178" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C178" t="s">
         <v>87</v>
-      </c>
-      <c r="C178" t="s">
-        <v>88</v>
       </c>
       <c r="E178" s="6"/>
     </row>
@@ -3824,10 +3935,10 @@
         <v>177</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C184" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E184" s="6"/>
     </row>
@@ -3877,10 +3988,10 @@
         <v>183</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C190" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E190" s="6"/>
     </row>
@@ -3889,7 +4000,9 @@
         <f t="shared" si="7"/>
         <v>184</v>
       </c>
-      <c r="B191" s="18"/>
+      <c r="B191" s="18" t="s">
+        <v>211</v>
+      </c>
       <c r="E191" s="6"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -3897,7 +4010,9 @@
         <f t="shared" si="7"/>
         <v>185</v>
       </c>
-      <c r="B192" s="18"/>
+      <c r="B192" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="E192" s="6"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -3905,7 +4020,9 @@
         <f t="shared" si="7"/>
         <v>186</v>
       </c>
-      <c r="B193" s="18"/>
+      <c r="B193" s="18" t="s">
+        <v>213</v>
+      </c>
       <c r="E193" s="6"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -3913,7 +4030,9 @@
         <f t="shared" si="7"/>
         <v>187</v>
       </c>
-      <c r="B194" s="18"/>
+      <c r="B194" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="E194" s="6"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -3921,7 +4040,9 @@
         <f t="shared" si="7"/>
         <v>188</v>
       </c>
-      <c r="B195" s="18"/>
+      <c r="B195" s="18" t="s">
+        <v>215</v>
+      </c>
       <c r="E195" s="6"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -3930,10 +4051,10 @@
         <v>189</v>
       </c>
       <c r="B196" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C196" t="s">
         <v>93</v>
-      </c>
-      <c r="C196" t="s">
-        <v>94</v>
       </c>
       <c r="E196" s="6"/>
     </row>
@@ -3942,7 +4063,9 @@
         <f t="shared" si="7"/>
         <v>190</v>
       </c>
-      <c r="B197" s="20"/>
+      <c r="B197" s="21" t="s">
+        <v>194</v>
+      </c>
       <c r="C197" s="14"/>
       <c r="E197" s="6"/>
     </row>
@@ -3951,7 +4074,9 @@
         <f t="shared" si="7"/>
         <v>191</v>
       </c>
-      <c r="B198" s="20"/>
+      <c r="B198" s="21" t="s">
+        <v>195</v>
+      </c>
       <c r="C198" s="14"/>
       <c r="E198" s="6"/>
     </row>
@@ -3960,7 +4085,9 @@
         <f t="shared" si="7"/>
         <v>192</v>
       </c>
-      <c r="B199" s="20"/>
+      <c r="B199" s="21" t="s">
+        <v>199</v>
+      </c>
       <c r="C199" s="14"/>
       <c r="E199" s="6"/>
     </row>
@@ -3988,10 +4115,10 @@
         <v>195</v>
       </c>
       <c r="B202" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C202" t="s">
         <v>95</v>
-      </c>
-      <c r="C202" t="s">
-        <v>96</v>
       </c>
       <c r="E202" s="6"/>
     </row>
@@ -4001,10 +4128,10 @@
         <v>196</v>
       </c>
       <c r="B203" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C203" t="s">
         <v>97</v>
-      </c>
-      <c r="C203" t="s">
-        <v>98</v>
       </c>
       <c r="E203" s="6"/>
     </row>
@@ -4014,10 +4141,10 @@
         <v>197</v>
       </c>
       <c r="B204" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C204" t="s">
         <v>99</v>
-      </c>
-      <c r="C204" t="s">
-        <v>100</v>
       </c>
       <c r="E204" s="6"/>
     </row>
@@ -4026,7 +4153,9 @@
         <f t="shared" si="7"/>
         <v>198</v>
       </c>
-      <c r="B205" s="18"/>
+      <c r="B205" s="18" t="s">
+        <v>183</v>
+      </c>
       <c r="E205" s="6"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4034,7 +4163,9 @@
         <f t="shared" si="7"/>
         <v>199</v>
       </c>
-      <c r="B206" s="18"/>
+      <c r="B206" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="E206" s="6"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4042,7 +4173,9 @@
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="B207" s="18"/>
+      <c r="B207" s="18" t="s">
+        <v>185</v>
+      </c>
       <c r="E207" s="6"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4050,7 +4183,9 @@
         <f t="shared" si="7"/>
         <v>201</v>
       </c>
-      <c r="B208" s="18"/>
+      <c r="B208" s="18" t="s">
+        <v>186</v>
+      </c>
       <c r="E208" s="6"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4058,7 +4193,9 @@
         <f t="shared" si="7"/>
         <v>202</v>
       </c>
-      <c r="B209" s="18"/>
+      <c r="B209" s="18" t="s">
+        <v>187</v>
+      </c>
       <c r="E209" s="6"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -4067,10 +4204,10 @@
         <v>203</v>
       </c>
       <c r="B210" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C210" t="s">
         <v>101</v>
-      </c>
-      <c r="C210" t="s">
-        <v>102</v>
       </c>
       <c r="E210" s="6"/>
     </row>
@@ -4079,7 +4216,9 @@
         <f t="shared" si="7"/>
         <v>204</v>
       </c>
-      <c r="B211" s="18"/>
+      <c r="B211" s="18" t="s">
+        <v>188</v>
+      </c>
       <c r="E211" s="6"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4087,7 +4226,9 @@
         <f t="shared" si="7"/>
         <v>205</v>
       </c>
-      <c r="B212" s="18"/>
+      <c r="B212" s="18" t="s">
+        <v>200</v>
+      </c>
       <c r="E212" s="6"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4120,10 +4261,10 @@
         <v>209</v>
       </c>
       <c r="B216" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C216" t="s">
         <v>103</v>
-      </c>
-      <c r="C216" t="s">
-        <v>104</v>
       </c>
       <c r="E216" s="6"/>
     </row>
@@ -4173,10 +4314,10 @@
         <v>215</v>
       </c>
       <c r="B222" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C222" t="s">
         <v>105</v>
-      </c>
-      <c r="C222" t="s">
-        <v>106</v>
       </c>
       <c r="E222" s="6"/>
     </row>
@@ -4185,7 +4326,9 @@
         <f t="shared" si="7"/>
         <v>216</v>
       </c>
-      <c r="B223" s="18"/>
+      <c r="B223" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="E223" s="6"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4193,7 +4336,9 @@
         <f t="shared" si="7"/>
         <v>217</v>
       </c>
-      <c r="B224" s="18"/>
+      <c r="B224" s="18" t="s">
+        <v>190</v>
+      </c>
       <c r="E224" s="6"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -4201,7 +4346,9 @@
         <f t="shared" si="7"/>
         <v>218</v>
       </c>
-      <c r="B225" s="18"/>
+      <c r="B225" s="18" t="s">
+        <v>191</v>
+      </c>
       <c r="E225" s="6"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -4209,7 +4356,9 @@
         <f t="shared" si="7"/>
         <v>219</v>
       </c>
-      <c r="B226" s="18"/>
+      <c r="B226" s="18" t="s">
+        <v>192</v>
+      </c>
       <c r="E226" s="6"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -4217,7 +4366,9 @@
         <f t="shared" si="7"/>
         <v>220</v>
       </c>
-      <c r="B227" s="18"/>
+      <c r="B227" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="E227" s="6"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -4226,10 +4377,10 @@
         <v>221</v>
       </c>
       <c r="B228" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C228" t="s">
         <v>107</v>
-      </c>
-      <c r="C228" t="s">
-        <v>108</v>
       </c>
       <c r="E228" s="6"/>
     </row>
@@ -4239,10 +4390,10 @@
         <v>222</v>
       </c>
       <c r="B229" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C229" t="s">
         <v>109</v>
-      </c>
-      <c r="C229" t="s">
-        <v>110</v>
       </c>
       <c r="E229" s="6"/>
     </row>
@@ -4251,7 +4402,9 @@
         <f t="shared" si="7"/>
         <v>223</v>
       </c>
-      <c r="B230" s="18"/>
+      <c r="B230" s="18" t="s">
+        <v>201</v>
+      </c>
       <c r="E230" s="6"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -4259,7 +4412,9 @@
         <f t="shared" si="7"/>
         <v>224</v>
       </c>
-      <c r="B231" s="18"/>
+      <c r="B231" s="18" t="s">
+        <v>202</v>
+      </c>
       <c r="E231" s="6"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -4267,7 +4422,9 @@
         <f t="shared" si="7"/>
         <v>225</v>
       </c>
-      <c r="B232" s="18"/>
+      <c r="B232" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="E232" s="6"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -4275,7 +4432,9 @@
         <f t="shared" si="7"/>
         <v>226</v>
       </c>
-      <c r="B233" s="18"/>
+      <c r="B233" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="E233" s="6"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -4283,7 +4442,9 @@
         <f t="shared" si="7"/>
         <v>227</v>
       </c>
-      <c r="B234" s="18"/>
+      <c r="B234" s="18" t="s">
+        <v>204</v>
+      </c>
       <c r="E234" s="6"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -4292,10 +4453,10 @@
         <v>228</v>
       </c>
       <c r="B235" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C235" t="s">
         <v>111</v>
-      </c>
-      <c r="C235" t="s">
-        <v>112</v>
       </c>
       <c r="E235" s="6"/>
     </row>
@@ -4345,10 +4506,10 @@
         <v>234</v>
       </c>
       <c r="B241" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C241" t="s">
         <v>113</v>
-      </c>
-      <c r="C241" t="s">
-        <v>114</v>
       </c>
       <c r="E241" s="6"/>
     </row>
@@ -4398,10 +4559,10 @@
         <v>240</v>
       </c>
       <c r="B247" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C247" t="s">
         <v>115</v>
-      </c>
-      <c r="C247" t="s">
-        <v>116</v>
       </c>
       <c r="E247" s="6"/>
     </row>
@@ -4466,10 +4627,10 @@
         <v>246</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D253" s="17"/>
       <c r="E253" s="17"/>
@@ -4481,10 +4642,10 @@
         <v>247</v>
       </c>
       <c r="B254" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C254" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D254" s="17"/>
       <c r="E254" s="17"/>
@@ -4551,10 +4712,10 @@
         <v>253</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C260" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D260" s="17"/>
       <c r="E260" s="17"/>

--- a/System Specifications.xlsx
+++ b/System Specifications.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="216">
   <si>
     <t>System Specification</t>
   </si>
@@ -674,7 +674,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,6 +724,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -957,15 +965,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -979,20 +990,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,11 +1102,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="6">
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="RowLevel_1" xfId="1" builtinId="1" iLevel="0"/>
+    <cellStyle name="RowLevel_2" xfId="2" builtinId="1" iLevel="1"/>
+    <cellStyle name="RowLevel_3" xfId="3" builtinId="1" iLevel="2"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -1645,168 +1678,168 @@
   <sheetData>
     <row r="3" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="37"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="37"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="40"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
     </row>
     <row r="16" spans="8:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
       <c r="M17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
       <c r="M18" s="10" t="str">
         <f>'Non Functional Requirement'!B1</f>
         <v>Non Functional Requirement</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="46">
+      <c r="B19" s="20"/>
+      <c r="C19" s="43">
         <v>25569</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
       <c r="M19" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E46" s="2"/>
@@ -1947,11 +1980,11 @@
   </sheetPr>
   <dimension ref="A1:L266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="113.85546875" bestFit="1" customWidth="1"/>
@@ -1966,10 +1999,10 @@
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="47"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="J1" s="8"/>
@@ -1978,8 +2011,8 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="J2" s="8"/>
@@ -1988,8 +2021,8 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="J3" s="8"/>
@@ -1998,8 +2031,8 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="J4" s="8"/>
@@ -2007,8 +2040,8 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="J5" s="8"/>
@@ -2050,852 +2083,855 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="b">
+      <c r="E8" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="62"/>
+      <c r="J8" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="7" t="b">
+      <c r="K8" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="L8" s="62"/>
+    </row>
+    <row r="9" spans="1:12" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59">
         <f t="shared" ref="A9:A35" si="0">$A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="b">
+      <c r="E9" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="7" t="b">
+      <c r="K9" s="60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="J10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="J11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+    <row r="12" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <f t="shared" ref="A12:A21" si="1">$A11+1</f>
         <v>5</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="E15" s="59"/>
+    </row>
+    <row r="16" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" s="53" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="E21" s="54"/>
+      <c r="F21" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="E22" s="59"/>
+    </row>
+    <row r="23" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <f t="shared" ref="A23:A34" si="2">$A22+1</f>
         <v>16</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="E28" s="59"/>
+    </row>
+    <row r="29" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" s="53" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="59">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="E35" s="59"/>
+    </row>
+    <row r="36" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
         <f>$A35+1</f>
         <v>29</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
         <f t="shared" ref="A37:A47" si="3">$A36+1</f>
         <v>30</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="E41" s="59"/>
+    </row>
+    <row r="42" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
         <f>$A41+1</f>
         <v>35</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
+      <c r="B45" s="16"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
+      <c r="B46" s="16"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+      <c r="E47" s="59"/>
+    </row>
+    <row r="48" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
         <f>$A47+1</f>
         <v>41</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>160</v>
       </c>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
+    <row r="49" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
         <f t="shared" ref="A49:A112" si="4">$A48+1</f>
         <v>42</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>161</v>
       </c>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+    <row r="50" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="B50" s="18"/>
+      <c r="B50" s="16"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+    <row r="51" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="B51" s="18"/>
+      <c r="B51" s="16"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
+    <row r="52" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="B52" s="18"/>
+      <c r="B52" s="16"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
+    <row r="53" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="56">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
+      <c r="E53" s="59"/>
+    </row>
+    <row r="54" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="16" t="s">
         <v>163</v>
       </c>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
+    <row r="55" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="16" t="s">
         <v>164</v>
       </c>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
+    <row r="56" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="B56" s="18"/>
+      <c r="B56" s="16"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
+    <row r="57" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="B57" s="18"/>
+      <c r="B57" s="16"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="17">
+    <row r="58" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="B58" s="18"/>
+      <c r="B58" s="16"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="17">
+    <row r="59" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="56">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
+      <c r="E59" s="59"/>
+    </row>
+    <row r="60" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="56">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+      <c r="E65" s="59"/>
+    </row>
+    <row r="66" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
+      <c r="B66" s="16"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
+      <c r="B67" s="16"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
+      <c r="B68" s="16"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
+      <c r="B69" s="16"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="17">
+      <c r="B70" s="16"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="1:6" s="53" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="52">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
+      <c r="E71" s="54"/>
+    </row>
+    <row r="72" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="56">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="17">
+      <c r="E72" s="59"/>
+    </row>
+    <row r="73" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A73" s="15">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="16" t="s">
         <v>174</v>
       </c>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="17">
+    <row r="74" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A74" s="15">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="16" t="s">
         <v>180</v>
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="17">
+    <row r="75" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A75" s="15">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="16" t="s">
         <v>181</v>
       </c>
       <c r="C75" t="s">
@@ -2903,1889 +2939,1889 @@
       </c>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="17">
+    <row r="76" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A76" s="15">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="B76" s="18"/>
+      <c r="B76" s="16"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="17">
+    <row r="77" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A77" s="15">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="B77" s="18"/>
+      <c r="B77" s="16"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="17">
+    <row r="78" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="56">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="17">
+      <c r="E78" s="59"/>
+    </row>
+    <row r="79" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A79" s="15">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="16" t="s">
         <v>175</v>
       </c>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="17">
+    <row r="80" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A80" s="15">
         <f t="shared" si="4"/>
         <v>73</v>
       </c>
-      <c r="B80" s="18"/>
+      <c r="B80" s="16"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="17">
+    <row r="81" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A81" s="15">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="B81" s="18"/>
+      <c r="B81" s="16"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="17">
+    <row r="82" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A82" s="15">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="B82" s="18"/>
+      <c r="B82" s="16"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="17">
+    <row r="83" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A83" s="15">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="B83" s="18"/>
+      <c r="B83" s="16"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="17">
+    <row r="84" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="56">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="17">
+      <c r="E84" s="59"/>
+    </row>
+    <row r="85" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A85" s="15">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="16" t="s">
         <v>170</v>
       </c>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="17">
+    <row r="86" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A86" s="15">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="16" t="s">
         <v>171</v>
       </c>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="17">
+    <row r="87" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A87" s="15">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="16" t="s">
         <v>172</v>
       </c>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="17">
+    <row r="88" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A88" s="15">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="16" t="s">
         <v>173</v>
       </c>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="17">
+    <row r="89" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A89" s="15">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="B89" s="18"/>
+      <c r="B89" s="16"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="17">
+    <row r="90" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="56">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="17">
+      <c r="E90" s="59"/>
+    </row>
+    <row r="91" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A91" s="15">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="16" t="s">
         <v>176</v>
       </c>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="17">
+    <row r="92" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A92" s="15">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="16" t="s">
         <v>177</v>
       </c>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="17">
+    <row r="93" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A93" s="15">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="16" t="s">
         <v>178</v>
       </c>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="17">
+    <row r="94" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A94" s="15">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="16" t="s">
         <v>179</v>
       </c>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="17">
+    <row r="95" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A95" s="15">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="B95" s="18"/>
+      <c r="B95" s="16"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="17">
+    <row r="96" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="56">
         <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="6"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="17">
+      <c r="E96" s="59"/>
+    </row>
+    <row r="97" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A97" s="15">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="B97" s="18"/>
+      <c r="B97" s="16"/>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="17">
+    <row r="98" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A98" s="15">
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="B98" s="18"/>
+      <c r="B98" s="16"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="17">
+    <row r="99" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A99" s="15">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="B99" s="18"/>
+      <c r="B99" s="16"/>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="17">
+    <row r="100" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A100" s="15">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="B100" s="18"/>
+      <c r="B100" s="16"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="17">
+    <row r="101" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A101" s="15">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="B101" s="18"/>
+      <c r="B101" s="16"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="17">
+    <row r="102" spans="1:5" s="53" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="52">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="E102" s="6"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="17">
+      <c r="E102" s="54"/>
+    </row>
+    <row r="103" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="56">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E103" s="6"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="17">
+      <c r="E103" s="59"/>
+    </row>
+    <row r="104" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A104" s="15">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="B104" s="18"/>
+      <c r="B104" s="16"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="17">
+    <row r="105" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A105" s="15">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="B105" s="18"/>
+      <c r="B105" s="16"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="17">
+    <row r="106" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A106" s="15">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="B106" s="18"/>
+      <c r="B106" s="16"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="17">
+    <row r="107" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A107" s="15">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="B107" s="18"/>
+      <c r="B107" s="16"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="17">
+    <row r="108" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A108" s="15">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
-      <c r="B108" s="18"/>
+      <c r="B108" s="16"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="17">
+    <row r="109" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="56">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E109" s="6"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="17">
+      <c r="E109" s="59"/>
+    </row>
+    <row r="110" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A110" s="15">
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
-      <c r="B110" s="18"/>
+      <c r="B110" s="16"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="17">
+    <row r="111" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A111" s="15">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="B111" s="18"/>
+      <c r="B111" s="16"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="17">
+    <row r="112" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A112" s="15">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="B112" s="18"/>
+      <c r="B112" s="16"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="17">
+    <row r="113" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A113" s="15">
         <f t="shared" ref="A113:A182" si="5">$A112+1</f>
         <v>106</v>
       </c>
-      <c r="B113" s="18"/>
+      <c r="B113" s="16"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="17">
+    <row r="114" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A114" s="15">
         <f t="shared" si="5"/>
         <v>107</v>
       </c>
-      <c r="B114" s="18"/>
+      <c r="B114" s="16"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="17">
+    <row r="115" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="56">
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="B115" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E115" s="6"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="17">
+      <c r="E115" s="59"/>
+    </row>
+    <row r="116" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A116" s="15">
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
-      <c r="B116" s="18"/>
+      <c r="B116" s="16"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="17">
+    <row r="117" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A117" s="15">
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="B117" s="18"/>
+      <c r="B117" s="16"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="17">
+    <row r="118" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A118" s="15">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
-      <c r="B118" s="18"/>
+      <c r="B118" s="16"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="17">
+    <row r="119" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A119" s="15">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="B119" s="18"/>
+      <c r="B119" s="16"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="17">
+    <row r="120" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A120" s="15">
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="B120" s="18"/>
+      <c r="B120" s="16"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="17">
+    <row r="121" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="56">
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="B121" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E121" s="6"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="17">
+      <c r="E121" s="59"/>
+    </row>
+    <row r="122" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A122" s="15">
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="B122" s="18"/>
+      <c r="B122" s="16"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="17">
+    <row r="123" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A123" s="15">
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="B123" s="18"/>
+      <c r="B123" s="16"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="17">
+    <row r="124" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A124" s="15">
         <f t="shared" si="5"/>
         <v>117</v>
       </c>
-      <c r="B124" s="18"/>
+      <c r="B124" s="16"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="17">
+    <row r="125" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A125" s="15">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="B125" s="18"/>
+      <c r="B125" s="16"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="17">
+    <row r="126" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A126" s="15">
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="B126" s="18"/>
+      <c r="B126" s="16"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="17">
+    <row r="127" spans="1:5" s="53" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="52">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E127" s="6"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="17">
+      <c r="E127" s="54"/>
+    </row>
+    <row r="128" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="56">
         <f t="shared" si="5"/>
         <v>121</v>
       </c>
-      <c r="B128" s="19" t="s">
+      <c r="B128" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E128" s="6"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="17">
+      <c r="E128" s="59"/>
+    </row>
+    <row r="129" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A129" s="15">
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="16" t="s">
         <v>206</v>
       </c>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="17">
+    <row r="130" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A130" s="15">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="16" t="s">
         <v>207</v>
       </c>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="17">
+    <row r="131" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A131" s="15">
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="16" t="s">
         <v>208</v>
       </c>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="17">
+    <row r="132" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A132" s="15">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="16" t="s">
         <v>209</v>
       </c>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="17">
+    <row r="133" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A133" s="15">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="16" t="s">
         <v>210</v>
       </c>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="17">
+    <row r="134" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="56">
         <f t="shared" si="5"/>
         <v>127</v>
       </c>
-      <c r="B134" s="19" t="s">
+      <c r="B134" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="E134" s="6"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="17">
+      <c r="E134" s="59"/>
+    </row>
+    <row r="135" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A135" s="15">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="B135" s="18"/>
+      <c r="B135" s="16"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="17">
+    <row r="136" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A136" s="15">
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
-      <c r="B136" s="18"/>
+      <c r="B136" s="16"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="17">
+    <row r="137" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A137" s="15">
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="B137" s="18"/>
+      <c r="B137" s="16"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="17">
+    <row r="138" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A138" s="15">
         <f t="shared" si="5"/>
         <v>131</v>
       </c>
-      <c r="B138" s="18"/>
+      <c r="B138" s="16"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="17">
+    <row r="139" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A139" s="15">
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="B139" s="18"/>
+      <c r="B139" s="16"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="17">
+    <row r="140" spans="1:5" s="53" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="52">
         <f>$A139+1</f>
         <v>133</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E140" s="6"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="17">
+      <c r="E140" s="54"/>
+    </row>
+    <row r="141" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="56">
         <f t="shared" si="5"/>
         <v>134</v>
       </c>
-      <c r="B141" s="19" t="s">
+      <c r="B141" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="E141" s="6"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="17">
+      <c r="E141" s="59"/>
+    </row>
+    <row r="142" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A142" s="15">
         <f t="shared" si="5"/>
         <v>135</v>
       </c>
-      <c r="B142" s="18"/>
+      <c r="B142" s="16"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="17">
+    <row r="143" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A143" s="15">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
-      <c r="B143" s="18"/>
+      <c r="B143" s="16"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="17">
+    <row r="144" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A144" s="15">
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
-      <c r="B144" s="18"/>
+      <c r="B144" s="16"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="17">
+    <row r="145" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A145" s="15">
         <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="B145" s="18"/>
+      <c r="B145" s="16"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="17">
+    <row r="146" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A146" s="15">
         <f t="shared" si="5"/>
         <v>139</v>
       </c>
-      <c r="B146" s="18"/>
+      <c r="B146" s="16"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="17">
+    <row r="147" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="56">
         <f t="shared" si="5"/>
         <v>140</v>
       </c>
-      <c r="B147" s="19" t="s">
+      <c r="B147" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="E147" s="6"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="17">
+      <c r="E147" s="59"/>
+    </row>
+    <row r="148" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A148" s="15">
         <f t="shared" si="5"/>
         <v>141</v>
       </c>
-      <c r="B148" s="18"/>
+      <c r="B148" s="16"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="17">
+    <row r="149" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A149" s="15">
         <f t="shared" si="5"/>
         <v>142</v>
       </c>
-      <c r="B149" s="18"/>
+      <c r="B149" s="16"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="17">
+    <row r="150" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A150" s="15">
         <f t="shared" si="5"/>
         <v>143</v>
       </c>
-      <c r="B150" s="18"/>
+      <c r="B150" s="16"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="17">
+    <row r="151" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A151" s="15">
         <f t="shared" si="5"/>
         <v>144</v>
       </c>
-      <c r="B151" s="18"/>
+      <c r="B151" s="16"/>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="17">
+    <row r="152" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A152" s="15">
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
-      <c r="B152" s="18"/>
+      <c r="B152" s="16"/>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="17">
+    <row r="153" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="56">
         <f t="shared" si="5"/>
         <v>146</v>
       </c>
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="E153" s="6"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="17">
+      <c r="E153" s="59"/>
+    </row>
+    <row r="154" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A154" s="15">
         <f t="shared" si="5"/>
         <v>147</v>
       </c>
-      <c r="B154" s="18"/>
+      <c r="B154" s="16"/>
       <c r="E154" s="6"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="17">
+    <row r="155" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A155" s="15">
         <f t="shared" si="5"/>
         <v>148</v>
       </c>
-      <c r="B155" s="18"/>
+      <c r="B155" s="16"/>
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="17">
+    <row r="156" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A156" s="15">
         <f t="shared" si="5"/>
         <v>149</v>
       </c>
-      <c r="B156" s="18"/>
+      <c r="B156" s="16"/>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="17">
+    <row r="157" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A157" s="15">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="B157" s="18"/>
+      <c r="B157" s="16"/>
       <c r="E157" s="6"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="17">
+    <row r="158" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A158" s="15">
         <f t="shared" si="5"/>
         <v>151</v>
       </c>
-      <c r="B158" s="18"/>
+      <c r="B158" s="16"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="17">
+    <row r="159" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="56">
         <f>$A158+1</f>
         <v>152</v>
       </c>
-      <c r="B159" s="19" t="s">
+      <c r="B159" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="17">
+      <c r="C159" s="56"/>
+      <c r="D159" s="56"/>
+      <c r="E159" s="56"/>
+      <c r="F159" s="56"/>
+    </row>
+    <row r="160" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A160" s="15">
         <f>$A159+1</f>
         <v>153</v>
       </c>
-      <c r="B160" s="18"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="17">
+      <c r="B160" s="16"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+    </row>
+    <row r="161" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A161" s="15">
         <f>$A160+1</f>
         <v>154</v>
       </c>
-      <c r="B161" s="18"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="17"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="17">
+      <c r="B161" s="16"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+    </row>
+    <row r="162" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A162" s="15">
         <f t="shared" ref="A162:A165" si="6">$A161+1</f>
         <v>155</v>
       </c>
-      <c r="B162" s="18"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="17"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="17">
+      <c r="B162" s="16"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+    </row>
+    <row r="163" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A163" s="15">
         <f t="shared" si="6"/>
         <v>156</v>
       </c>
-      <c r="B163" s="18"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="17"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="17">
+      <c r="B163" s="16"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+    </row>
+    <row r="164" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A164" s="15">
         <f t="shared" si="6"/>
         <v>157</v>
       </c>
-      <c r="B164" s="18"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="17">
+      <c r="B164" s="16"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+    </row>
+    <row r="165" spans="1:6" s="53" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="52">
         <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E165" s="6"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="17">
+      <c r="E165" s="54"/>
+    </row>
+    <row r="166" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="56">
         <f t="shared" si="5"/>
         <v>159</v>
       </c>
-      <c r="B166" s="19" t="s">
+      <c r="B166" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E166" s="6"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="17">
+      <c r="E166" s="59"/>
+    </row>
+    <row r="167" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A167" s="15">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="B167" s="18" t="s">
+      <c r="B167" s="16" t="s">
         <v>165</v>
       </c>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="17">
+    <row r="168" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A168" s="15">
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
-      <c r="B168" s="18" t="s">
+      <c r="B168" s="16" t="s">
         <v>166</v>
       </c>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="17">
+    <row r="169" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A169" s="15">
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B169" s="16" t="s">
         <v>167</v>
       </c>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="17">
+    <row r="170" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A170" s="15">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
-      <c r="B170" s="18" t="s">
+      <c r="B170" s="16" t="s">
         <v>168</v>
       </c>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="17">
+    <row r="171" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A171" s="15">
         <f t="shared" si="5"/>
         <v>164</v>
       </c>
-      <c r="B171" s="18" t="s">
+      <c r="B171" s="16" t="s">
         <v>169</v>
       </c>
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="17">
+    <row r="172" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="56">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="B172" s="19" t="s">
+      <c r="B172" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="E172" s="6"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="17">
+      <c r="E172" s="59"/>
+    </row>
+    <row r="173" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A173" s="15">
         <f t="shared" si="5"/>
         <v>166</v>
       </c>
-      <c r="B173" s="18" t="s">
+      <c r="B173" s="16" t="s">
         <v>196</v>
       </c>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="17">
+    <row r="174" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A174" s="15">
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="B174" s="18" t="s">
+      <c r="B174" s="16" t="s">
         <v>197</v>
       </c>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="17">
+    <row r="175" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A175" s="15">
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
-      <c r="B175" s="18"/>
+      <c r="B175" s="16"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="17">
+    <row r="176" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A176" s="15">
         <f t="shared" si="5"/>
         <v>169</v>
       </c>
-      <c r="B176" s="18"/>
+      <c r="B176" s="16"/>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="17">
+    <row r="177" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A177" s="15">
         <f t="shared" si="5"/>
         <v>170</v>
       </c>
-      <c r="B177" s="18"/>
+      <c r="B177" s="16"/>
       <c r="E177" s="6"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="17">
+    <row r="178" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="56">
         <f t="shared" si="5"/>
         <v>171</v>
       </c>
-      <c r="B178" s="19" t="s">
+      <c r="B178" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E178" s="6"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="17">
+      <c r="E178" s="59"/>
+    </row>
+    <row r="179" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A179" s="15">
         <f t="shared" si="5"/>
         <v>172</v>
       </c>
-      <c r="B179" s="18"/>
+      <c r="B179" s="16"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="17">
+    <row r="180" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A180" s="15">
         <f t="shared" si="5"/>
         <v>173</v>
       </c>
-      <c r="B180" s="18"/>
+      <c r="B180" s="16"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="17">
+    <row r="181" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A181" s="15">
         <f t="shared" si="5"/>
         <v>174</v>
       </c>
-      <c r="B181" s="18"/>
+      <c r="B181" s="16"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="17">
+    <row r="182" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A182" s="15">
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
-      <c r="B182" s="18"/>
+      <c r="B182" s="16"/>
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="17">
+    <row r="183" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A183" s="15">
         <f t="shared" ref="A183:A246" si="7">$A182+1</f>
         <v>176</v>
       </c>
-      <c r="B183" s="18"/>
+      <c r="B183" s="16"/>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="17">
+    <row r="184" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="56">
         <f t="shared" si="7"/>
         <v>177</v>
       </c>
-      <c r="B184" s="19" t="s">
+      <c r="B184" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="E184" s="6"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="17">
+      <c r="E184" s="59"/>
+    </row>
+    <row r="185" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A185" s="15">
         <f t="shared" si="7"/>
         <v>178</v>
       </c>
-      <c r="B185" s="18"/>
+      <c r="B185" s="16"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="17">
+    <row r="186" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A186" s="15">
         <f t="shared" si="7"/>
         <v>179</v>
       </c>
-      <c r="B186" s="18"/>
+      <c r="B186" s="16"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="17">
+    <row r="187" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A187" s="15">
         <f t="shared" si="7"/>
         <v>180</v>
       </c>
-      <c r="B187" s="18"/>
+      <c r="B187" s="16"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="17">
+    <row r="188" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A188" s="15">
         <f t="shared" si="7"/>
         <v>181</v>
       </c>
-      <c r="B188" s="18"/>
+      <c r="B188" s="16"/>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="17">
+    <row r="189" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A189" s="15">
         <f t="shared" si="7"/>
         <v>182</v>
       </c>
-      <c r="B189" s="18"/>
+      <c r="B189" s="16"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="17">
+    <row r="190" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="56">
         <f t="shared" si="7"/>
         <v>183</v>
       </c>
-      <c r="B190" s="19" t="s">
+      <c r="B190" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="E190" s="6"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="17">
+      <c r="E190" s="59"/>
+    </row>
+    <row r="191" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A191" s="15">
         <f t="shared" si="7"/>
         <v>184</v>
       </c>
-      <c r="B191" s="18" t="s">
+      <c r="B191" s="16" t="s">
         <v>211</v>
       </c>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="17">
+    <row r="192" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A192" s="15">
         <f t="shared" si="7"/>
         <v>185</v>
       </c>
-      <c r="B192" s="18" t="s">
+      <c r="B192" s="16" t="s">
         <v>212</v>
       </c>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="17">
+    <row r="193" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A193" s="15">
         <f t="shared" si="7"/>
         <v>186</v>
       </c>
-      <c r="B193" s="18" t="s">
+      <c r="B193" s="16" t="s">
         <v>213</v>
       </c>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="17">
+    <row r="194" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A194" s="15">
         <f t="shared" si="7"/>
         <v>187</v>
       </c>
-      <c r="B194" s="18" t="s">
+      <c r="B194" s="16" t="s">
         <v>214</v>
       </c>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="17">
+    <row r="195" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A195" s="15">
         <f t="shared" si="7"/>
         <v>188</v>
       </c>
-      <c r="B195" s="18" t="s">
+      <c r="B195" s="16" t="s">
         <v>215</v>
       </c>
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="17">
+    <row r="196" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="56">
         <f t="shared" si="7"/>
         <v>189</v>
       </c>
-      <c r="B196" s="19" t="s">
+      <c r="B196" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E196" s="6"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="17">
+      <c r="E196" s="59"/>
+    </row>
+    <row r="197" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A197" s="15">
         <f t="shared" si="7"/>
         <v>190</v>
       </c>
-      <c r="B197" s="21" t="s">
+      <c r="B197" s="18" t="s">
         <v>194</v>
       </c>
       <c r="C197" s="14"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="17">
+    <row r="198" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A198" s="15">
         <f t="shared" si="7"/>
         <v>191</v>
       </c>
-      <c r="B198" s="21" t="s">
+      <c r="B198" s="18" t="s">
         <v>195</v>
       </c>
       <c r="C198" s="14"/>
       <c r="E198" s="6"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="17">
+    <row r="199" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A199" s="15">
         <f t="shared" si="7"/>
         <v>192</v>
       </c>
-      <c r="B199" s="21" t="s">
+      <c r="B199" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C199" s="14"/>
       <c r="E199" s="6"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="17">
+    <row r="200" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A200" s="15">
         <f t="shared" si="7"/>
         <v>193</v>
       </c>
-      <c r="B200" s="20"/>
+      <c r="B200" s="17"/>
       <c r="C200" s="14"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="17">
+    <row r="201" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A201" s="15">
         <f t="shared" si="7"/>
         <v>194</v>
       </c>
-      <c r="B201" s="20"/>
+      <c r="B201" s="17"/>
       <c r="C201" s="14"/>
       <c r="E201" s="6"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="17">
+    <row r="202" spans="1:5" s="53" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="52">
         <f t="shared" si="7"/>
         <v>195</v>
       </c>
-      <c r="B202" s="16" t="s">
+      <c r="B202" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="E202" s="6"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="17">
+      <c r="E202" s="54"/>
+    </row>
+    <row r="203" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="56">
         <f t="shared" si="7"/>
         <v>196</v>
       </c>
-      <c r="B203" s="16" t="s">
+      <c r="B203" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="E203" s="6"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="17">
+      <c r="E203" s="59"/>
+    </row>
+    <row r="204" spans="1:5" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A204" s="63">
         <f t="shared" si="7"/>
         <v>197</v>
       </c>
-      <c r="B204" s="19" t="s">
+      <c r="B204" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="E204" s="6"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="17">
+      <c r="E204" s="66"/>
+    </row>
+    <row r="205" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A205" s="15">
         <f t="shared" si="7"/>
         <v>198</v>
       </c>
-      <c r="B205" s="18" t="s">
+      <c r="B205" s="16" t="s">
         <v>183</v>
       </c>
       <c r="E205" s="6"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="17">
+    <row r="206" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A206" s="15">
         <f t="shared" si="7"/>
         <v>199</v>
       </c>
-      <c r="B206" s="18" t="s">
+      <c r="B206" s="16" t="s">
         <v>184</v>
       </c>
       <c r="E206" s="6"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="17">
+    <row r="207" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A207" s="15">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="B207" s="18" t="s">
+      <c r="B207" s="16" t="s">
         <v>185</v>
       </c>
       <c r="E207" s="6"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="17">
+    <row r="208" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A208" s="15">
         <f t="shared" si="7"/>
         <v>201</v>
       </c>
-      <c r="B208" s="18" t="s">
+      <c r="B208" s="16" t="s">
         <v>186</v>
       </c>
       <c r="E208" s="6"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="17">
+    <row r="209" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A209" s="15">
         <f t="shared" si="7"/>
         <v>202</v>
       </c>
-      <c r="B209" s="18" t="s">
+      <c r="B209" s="16" t="s">
         <v>187</v>
       </c>
       <c r="E209" s="6"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="17">
+    <row r="210" spans="1:5" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A210" s="63">
         <f t="shared" si="7"/>
         <v>203</v>
       </c>
-      <c r="B210" s="19" t="s">
+      <c r="B210" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="E210" s="6"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="17">
+      <c r="E210" s="66"/>
+    </row>
+    <row r="211" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A211" s="15">
         <f t="shared" si="7"/>
         <v>204</v>
       </c>
-      <c r="B211" s="18" t="s">
+      <c r="B211" s="16" t="s">
         <v>188</v>
       </c>
       <c r="E211" s="6"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="17">
+    <row r="212" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A212" s="15">
         <f t="shared" si="7"/>
         <v>205</v>
       </c>
-      <c r="B212" s="18" t="s">
+      <c r="B212" s="16" t="s">
         <v>200</v>
       </c>
       <c r="E212" s="6"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="17">
+    <row r="213" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A213" s="15">
         <f t="shared" si="7"/>
         <v>206</v>
       </c>
-      <c r="B213" s="18"/>
+      <c r="B213" s="16"/>
       <c r="E213" s="6"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="17">
+    <row r="214" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A214" s="15">
         <f t="shared" si="7"/>
         <v>207</v>
       </c>
-      <c r="B214" s="18"/>
+      <c r="B214" s="16"/>
       <c r="E214" s="6"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="17">
+    <row r="215" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A215" s="15">
         <f t="shared" si="7"/>
         <v>208</v>
       </c>
-      <c r="B215" s="18"/>
+      <c r="B215" s="16"/>
       <c r="E215" s="6"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="17">
+    <row r="216" spans="1:5" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A216" s="63">
         <f t="shared" si="7"/>
         <v>209</v>
       </c>
-      <c r="B216" s="19" t="s">
+      <c r="B216" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="E216" s="6"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="17">
+      <c r="E216" s="66"/>
+    </row>
+    <row r="217" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A217" s="15">
         <f t="shared" si="7"/>
         <v>210</v>
       </c>
-      <c r="B217" s="18"/>
+      <c r="B217" s="16"/>
       <c r="E217" s="6"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="17">
+    <row r="218" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A218" s="15">
         <f t="shared" si="7"/>
         <v>211</v>
       </c>
-      <c r="B218" s="18"/>
+      <c r="B218" s="16"/>
       <c r="E218" s="6"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="17">
+    <row r="219" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A219" s="15">
         <f t="shared" si="7"/>
         <v>212</v>
       </c>
-      <c r="B219" s="18"/>
+      <c r="B219" s="16"/>
       <c r="E219" s="6"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="17">
+    <row r="220" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A220" s="15">
         <f t="shared" si="7"/>
         <v>213</v>
       </c>
-      <c r="B220" s="18"/>
+      <c r="B220" s="16"/>
       <c r="E220" s="6"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="17">
+    <row r="221" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A221" s="15">
         <f t="shared" si="7"/>
         <v>214</v>
       </c>
-      <c r="B221" s="18"/>
+      <c r="B221" s="16"/>
       <c r="E221" s="6"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="17">
+    <row r="222" spans="1:5" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A222" s="63">
         <f t="shared" si="7"/>
         <v>215</v>
       </c>
-      <c r="B222" s="19" t="s">
+      <c r="B222" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="E222" s="6"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="17">
+      <c r="E222" s="66"/>
+    </row>
+    <row r="223" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A223" s="15">
         <f t="shared" si="7"/>
         <v>216</v>
       </c>
-      <c r="B223" s="18" t="s">
+      <c r="B223" s="16" t="s">
         <v>189</v>
       </c>
       <c r="E223" s="6"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="17">
+    <row r="224" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A224" s="15">
         <f t="shared" si="7"/>
         <v>217</v>
       </c>
-      <c r="B224" s="18" t="s">
+      <c r="B224" s="16" t="s">
         <v>190</v>
       </c>
       <c r="E224" s="6"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="17">
+    <row r="225" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A225" s="15">
         <f t="shared" si="7"/>
         <v>218</v>
       </c>
-      <c r="B225" s="18" t="s">
+      <c r="B225" s="16" t="s">
         <v>191</v>
       </c>
       <c r="E225" s="6"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="17">
+    <row r="226" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A226" s="15">
         <f t="shared" si="7"/>
         <v>219</v>
       </c>
-      <c r="B226" s="18" t="s">
+      <c r="B226" s="16" t="s">
         <v>192</v>
       </c>
       <c r="E226" s="6"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="17">
+    <row r="227" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A227" s="15">
         <f t="shared" si="7"/>
         <v>220</v>
       </c>
-      <c r="B227" s="18" t="s">
+      <c r="B227" s="16" t="s">
         <v>193</v>
       </c>
       <c r="E227" s="6"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="17">
+    <row r="228" spans="1:5" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="56">
         <f t="shared" si="7"/>
         <v>221</v>
       </c>
-      <c r="B228" s="16" t="s">
+      <c r="B228" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="E228" s="6"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="17">
+      <c r="E228" s="59"/>
+    </row>
+    <row r="229" spans="1:5" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A229" s="63">
         <f t="shared" si="7"/>
         <v>222</v>
       </c>
-      <c r="B229" s="19" t="s">
+      <c r="B229" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="E229" s="6"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="17">
+      <c r="E229" s="66"/>
+    </row>
+    <row r="230" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A230" s="15">
         <f t="shared" si="7"/>
         <v>223</v>
       </c>
-      <c r="B230" s="18" t="s">
+      <c r="B230" s="16" t="s">
         <v>201</v>
       </c>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="17">
+    <row r="231" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A231" s="15">
         <f t="shared" si="7"/>
         <v>224</v>
       </c>
-      <c r="B231" s="18" t="s">
+      <c r="B231" s="16" t="s">
         <v>202</v>
       </c>
       <c r="E231" s="6"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="17">
+    <row r="232" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A232" s="15">
         <f t="shared" si="7"/>
         <v>225</v>
       </c>
-      <c r="B232" s="18" t="s">
+      <c r="B232" s="16" t="s">
         <v>203</v>
       </c>
       <c r="E232" s="6"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="17">
+    <row r="233" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A233" s="15">
         <f t="shared" si="7"/>
         <v>226</v>
       </c>
-      <c r="B233" s="18" t="s">
+      <c r="B233" s="16" t="s">
         <v>205</v>
       </c>
       <c r="E233" s="6"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="17">
+    <row r="234" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A234" s="15">
         <f t="shared" si="7"/>
         <v>227</v>
       </c>
-      <c r="B234" s="18" t="s">
+      <c r="B234" s="16" t="s">
         <v>204</v>
       </c>
       <c r="E234" s="6"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="17">
+    <row r="235" spans="1:5" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A235" s="63">
         <f t="shared" si="7"/>
         <v>228</v>
       </c>
-      <c r="B235" s="19" t="s">
+      <c r="B235" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="E235" s="6"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="17">
+      <c r="E235" s="66"/>
+    </row>
+    <row r="236" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A236" s="15">
         <f t="shared" si="7"/>
         <v>229</v>
       </c>
-      <c r="B236" s="18"/>
+      <c r="B236" s="16"/>
       <c r="E236" s="6"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="17">
+    <row r="237" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A237" s="15">
         <f t="shared" si="7"/>
         <v>230</v>
       </c>
-      <c r="B237" s="18"/>
+      <c r="B237" s="16"/>
       <c r="E237" s="6"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="17">
+    <row r="238" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A238" s="15">
         <f t="shared" si="7"/>
         <v>231</v>
       </c>
-      <c r="B238" s="18"/>
+      <c r="B238" s="16"/>
       <c r="E238" s="6"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="17">
+    <row r="239" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A239" s="15">
         <f t="shared" si="7"/>
         <v>232</v>
       </c>
-      <c r="B239" s="18"/>
+      <c r="B239" s="16"/>
       <c r="E239" s="6"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="17">
+    <row r="240" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A240" s="15">
         <f t="shared" si="7"/>
         <v>233</v>
       </c>
-      <c r="B240" s="18"/>
+      <c r="B240" s="16"/>
       <c r="E240" s="6"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="17">
+    <row r="241" spans="1:6" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A241" s="63">
         <f t="shared" si="7"/>
         <v>234</v>
       </c>
-      <c r="B241" s="19" t="s">
+      <c r="B241" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="E241" s="6"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="17">
+      <c r="E241" s="66"/>
+    </row>
+    <row r="242" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A242" s="15">
         <f t="shared" si="7"/>
         <v>235</v>
       </c>
-      <c r="B242" s="18"/>
+      <c r="B242" s="16"/>
       <c r="E242" s="6"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="17">
+    <row r="243" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A243" s="15">
         <f t="shared" si="7"/>
         <v>236</v>
       </c>
-      <c r="B243" s="18"/>
+      <c r="B243" s="16"/>
       <c r="E243" s="6"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="17">
+    <row r="244" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A244" s="15">
         <f t="shared" si="7"/>
         <v>237</v>
       </c>
-      <c r="B244" s="18"/>
+      <c r="B244" s="16"/>
       <c r="E244" s="6"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="17">
+    <row r="245" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A245" s="15">
         <f t="shared" si="7"/>
         <v>238</v>
       </c>
-      <c r="B245" s="18"/>
+      <c r="B245" s="16"/>
       <c r="E245" s="6"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="17">
+    <row r="246" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A246" s="15">
         <f t="shared" si="7"/>
         <v>239</v>
       </c>
-      <c r="B246" s="18"/>
+      <c r="B246" s="16"/>
       <c r="E246" s="6"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="17">
+    <row r="247" spans="1:6" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A247" s="63">
         <f t="shared" ref="A247:A252" si="8">$A246+1</f>
         <v>240</v>
       </c>
-      <c r="B247" s="19" t="s">
+      <c r="B247" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="E247" s="6"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="17">
+      <c r="E247" s="66"/>
+    </row>
+    <row r="248" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A248" s="15">
         <f t="shared" si="8"/>
         <v>241</v>
       </c>
-      <c r="B248" s="18"/>
-      <c r="C248" s="17"/>
-      <c r="D248" s="17"/>
-      <c r="E248" s="17"/>
-      <c r="F248" s="17"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="17">
+      <c r="B248" s="16"/>
+      <c r="C248" s="15"/>
+      <c r="D248" s="15"/>
+      <c r="E248" s="15"/>
+      <c r="F248" s="15"/>
+    </row>
+    <row r="249" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A249" s="15">
         <f t="shared" si="8"/>
         <v>242</v>
       </c>
-      <c r="B249" s="18"/>
-      <c r="C249" s="17"/>
-      <c r="D249" s="17"/>
-      <c r="E249" s="17"/>
-      <c r="F249" s="17"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="17">
+      <c r="B249" s="16"/>
+      <c r="C249" s="15"/>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15"/>
+      <c r="F249" s="15"/>
+    </row>
+    <row r="250" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A250" s="15">
         <f t="shared" si="8"/>
         <v>243</v>
       </c>
-      <c r="B250" s="18"/>
-      <c r="C250" s="17"/>
-      <c r="D250" s="17"/>
-      <c r="E250" s="17"/>
-      <c r="F250" s="17"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="17">
+      <c r="B250" s="16"/>
+      <c r="C250" s="15"/>
+      <c r="D250" s="15"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="15"/>
+    </row>
+    <row r="251" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A251" s="15">
         <f t="shared" si="8"/>
         <v>244</v>
       </c>
-      <c r="B251" s="18"/>
-      <c r="C251" s="17"/>
-      <c r="D251" s="17"/>
-      <c r="E251" s="17"/>
-      <c r="F251" s="17"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="17">
+      <c r="B251" s="16"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15"/>
+    </row>
+    <row r="252" spans="1:6" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A252" s="15">
         <f t="shared" si="8"/>
         <v>245</v>
       </c>
-      <c r="B252" s="18"/>
-      <c r="C252" s="17"/>
-      <c r="D252" s="17"/>
-      <c r="E252" s="17"/>
-      <c r="F252" s="17"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="17">
+      <c r="B252" s="16"/>
+      <c r="C252" s="15"/>
+      <c r="D252" s="15"/>
+      <c r="E252" s="15"/>
+      <c r="F252" s="15"/>
+    </row>
+    <row r="253" spans="1:6" s="53" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="52">
         <f t="shared" ref="A253" si="9">$A252+1</f>
         <v>246</v>
       </c>
-      <c r="B253" s="16" t="s">
+      <c r="B253" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="C253" s="17" t="s">
+      <c r="C253" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="D253" s="17"/>
-      <c r="E253" s="17"/>
-      <c r="F253" s="17"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="17">
+      <c r="D253" s="52"/>
+      <c r="E253" s="52"/>
+      <c r="F253" s="52"/>
+    </row>
+    <row r="254" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="56">
         <f>$A253+1</f>
         <v>247</v>
       </c>
-      <c r="B254" s="19" t="s">
+      <c r="B254" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C254" s="17" t="s">
+      <c r="C254" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="D254" s="17"/>
-      <c r="E254" s="17"/>
-      <c r="F254" s="17"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="17">
+      <c r="D254" s="56"/>
+      <c r="E254" s="56"/>
+      <c r="F254" s="56"/>
+    </row>
+    <row r="255" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A255" s="15">
         <f>$A254+1</f>
         <v>248</v>
       </c>
-      <c r="B255" s="18"/>
-      <c r="C255" s="17"/>
-      <c r="D255" s="17"/>
-      <c r="E255" s="17"/>
-      <c r="F255" s="17"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="17">
+      <c r="B255" s="16"/>
+      <c r="C255" s="15"/>
+      <c r="D255" s="15"/>
+      <c r="E255" s="15"/>
+      <c r="F255" s="15"/>
+    </row>
+    <row r="256" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A256" s="15">
         <f t="shared" ref="A256:A260" si="10">$A255+1</f>
         <v>249</v>
       </c>
-      <c r="B256" s="18"/>
-      <c r="C256" s="17"/>
-      <c r="D256" s="17"/>
-      <c r="E256" s="17"/>
-      <c r="F256" s="17"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="17">
+      <c r="B256" s="16"/>
+      <c r="C256" s="15"/>
+      <c r="D256" s="15"/>
+      <c r="E256" s="15"/>
+      <c r="F256" s="15"/>
+    </row>
+    <row r="257" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A257" s="15">
         <f t="shared" si="10"/>
         <v>250</v>
       </c>
-      <c r="B257" s="18"/>
-      <c r="C257" s="17"/>
-      <c r="D257" s="17"/>
-      <c r="E257" s="17"/>
-      <c r="F257" s="17"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="17">
+      <c r="B257" s="16"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="15"/>
+      <c r="E257" s="15"/>
+      <c r="F257" s="15"/>
+    </row>
+    <row r="258" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A258" s="15">
         <f t="shared" si="10"/>
         <v>251</v>
       </c>
-      <c r="B258" s="18"/>
-      <c r="C258" s="17"/>
-      <c r="D258" s="17"/>
-      <c r="E258" s="17"/>
-      <c r="F258" s="17"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="17">
+      <c r="B258" s="16"/>
+      <c r="C258" s="15"/>
+      <c r="D258" s="15"/>
+      <c r="E258" s="15"/>
+      <c r="F258" s="15"/>
+    </row>
+    <row r="259" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A259" s="15">
         <f t="shared" si="10"/>
         <v>252</v>
       </c>
-      <c r="B259" s="18"/>
-      <c r="C259" s="17"/>
-      <c r="D259" s="17"/>
-      <c r="E259" s="17"/>
-      <c r="F259" s="17"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="17">
+      <c r="B259" s="16"/>
+      <c r="C259" s="15"/>
+      <c r="D259" s="15"/>
+      <c r="E259" s="15"/>
+      <c r="F259" s="15"/>
+    </row>
+    <row r="260" spans="1:6" s="58" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="56">
         <f t="shared" si="10"/>
         <v>253</v>
       </c>
-      <c r="B260" s="19" t="s">
+      <c r="B260" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="C260" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="D260" s="17"/>
-      <c r="E260" s="17"/>
-      <c r="F260" s="17"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="17">
+      <c r="D260" s="56"/>
+      <c r="E260" s="56"/>
+      <c r="F260" s="56"/>
+    </row>
+    <row r="261" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A261" s="15">
         <f t="shared" ref="A261:A266" si="11">$A260+1</f>
         <v>254</v>
       </c>
-      <c r="B261" s="18"/>
-      <c r="C261" s="17"/>
-      <c r="D261" s="17"/>
-      <c r="E261" s="17"/>
-      <c r="F261" s="17"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="17">
+      <c r="B261" s="16"/>
+      <c r="C261" s="15"/>
+      <c r="D261" s="15"/>
+      <c r="E261" s="15"/>
+      <c r="F261" s="15"/>
+    </row>
+    <row r="262" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A262" s="15">
         <f t="shared" si="11"/>
         <v>255</v>
       </c>
-      <c r="B262" s="18"/>
-      <c r="C262" s="17"/>
-      <c r="D262" s="17"/>
-      <c r="E262" s="17"/>
-      <c r="F262" s="17"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="17">
+      <c r="B262" s="16"/>
+      <c r="C262" s="15"/>
+      <c r="D262" s="15"/>
+      <c r="E262" s="15"/>
+      <c r="F262" s="15"/>
+    </row>
+    <row r="263" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A263" s="15">
         <f t="shared" si="11"/>
         <v>256</v>
       </c>
-      <c r="B263" s="18"/>
-      <c r="C263" s="17"/>
-      <c r="D263" s="17"/>
-      <c r="E263" s="17"/>
-      <c r="F263" s="17"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="17">
+      <c r="B263" s="16"/>
+      <c r="C263" s="15"/>
+      <c r="D263" s="15"/>
+      <c r="E263" s="15"/>
+      <c r="F263" s="15"/>
+    </row>
+    <row r="264" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A264" s="15">
         <f t="shared" si="11"/>
         <v>257</v>
       </c>
-      <c r="B264" s="18"/>
-      <c r="C264" s="17"/>
-      <c r="D264" s="17"/>
-      <c r="E264" s="17"/>
-      <c r="F264" s="17"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="17">
+      <c r="B264" s="16"/>
+      <c r="C264" s="15"/>
+      <c r="D264" s="15"/>
+      <c r="E264" s="15"/>
+      <c r="F264" s="15"/>
+    </row>
+    <row r="265" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A265" s="15">
         <f t="shared" si="11"/>
         <v>258</v>
       </c>
-      <c r="B265" s="18"/>
-      <c r="C265" s="17"/>
-      <c r="D265" s="17"/>
-      <c r="E265" s="17"/>
-      <c r="F265" s="17"/>
+      <c r="B265" s="16"/>
+      <c r="C265" s="15"/>
+      <c r="D265" s="15"/>
+      <c r="E265" s="15"/>
+      <c r="F265" s="15"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="17">
+      <c r="A266" s="15">
         <f t="shared" si="11"/>
         <v>259</v>
       </c>
-      <c r="B266" s="17"/>
-      <c r="C266" s="17"/>
-      <c r="D266" s="17"/>
-      <c r="E266" s="17"/>
-      <c r="F266" s="17"/>
+      <c r="B266" s="15"/>
+      <c r="C266" s="15"/>
+      <c r="D266" s="15"/>
+      <c r="E266" s="15"/>
+      <c r="F266" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
